--- a/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping_LCH.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping_LCH.xlsx
@@ -1345,7 +1345,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1720,9 +1720,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2603,22 +2600,22 @@
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="67" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 28 2015 15:00:57</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 31 2015 19:54:36</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="G2" s="268" t="s">
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="269"/>
+      <c r="G2" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="271"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="270"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
@@ -2721,12 +2718,12 @@
         <v>GBP_YCSTDRH</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="G9" s="268" t="s">
+      <c r="G9" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="271"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="270"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2747,9 +2744,7 @@
       <c r="C11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="37">
-        <v>42244.723344907405</v>
-      </c>
+      <c r="D11" s="37"/>
       <c r="E11" s="18"/>
       <c r="G11" s="57"/>
       <c r="H11" s="56" t="s">
@@ -2799,7 +2794,7 @@
       </c>
       <c r="D14" s="142" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD_linearLCH#0000</v>
+        <v>_GBPYCSTD_linearLCH#0001</v>
       </c>
       <c r="E14" s="18"/>
       <c r="G14" s="57"/>
@@ -2977,14 +2972,14 @@
       <c r="C27" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="266" t="b">
+      <c r="D27" s="265" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
-      <c r="C28" s="265"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="16"/>
       <c r="E28" s="15"/>
     </row>
@@ -3036,14 +3031,14 @@
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="157" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.140625" style="185" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="27.5703125" style="185" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="185" customWidth="1"/>
-    <col min="6" max="6" width="8" style="185" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="185" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="185" customWidth="1"/>
-    <col min="9" max="10" width="17.28515625" style="185" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="184" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="27.5703125" style="184" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="184" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="184" customWidth="1"/>
+    <col min="6" max="6" width="8" style="184" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="184" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="184" customWidth="1"/>
+    <col min="9" max="10" width="17.28515625" style="184" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="157" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="157" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.140625" style="157" bestFit="1" customWidth="1"/>
@@ -3053,41 +3048,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="198"/>
-      <c r="B1" s="199" t="s">
+      <c r="A1" s="197"/>
+      <c r="B1" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="199" t="s">
+      <c r="D1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="199" t="s">
+      <c r="E1" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="199" t="s">
+      <c r="F1" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="199" t="s">
+      <c r="G1" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="199" t="s">
+      <c r="H1" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="199" t="s">
+      <c r="I1" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="199" t="s">
+      <c r="J1" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="200"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
+      <c r="A2" s="200"/>
       <c r="B2" s="82" t="str">
         <f>Deposits!F4</f>
-        <v>obj_004b2#0000</v>
+        <v>obj_003b4#0001</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -3115,13 +3110,13 @@
         <f>_xll.qlRateHelperMaturityDate($B2,Trigger)</f>
         <v>42193</v>
       </c>
-      <c r="K2" s="202"/>
+      <c r="K2" s="201"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="201"/>
+      <c r="A3" s="200"/>
       <c r="B3" s="82" t="str">
         <f>Deposits!F5</f>
-        <v>obj_004b3#0000</v>
+        <v>obj_003b5#0001</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -3149,13 +3144,13 @@
         <f>_xll.qlRateHelperMaturityDate($B3,Trigger)</f>
         <v>42199</v>
       </c>
-      <c r="K3" s="202"/>
+      <c r="K3" s="201"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="201"/>
+      <c r="A4" s="200"/>
       <c r="B4" s="82" t="str">
         <f>Deposits!F6</f>
-        <v>obj_004b5#0000</v>
+        <v>obj_003b7#0001</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -3183,13 +3178,13 @@
         <f>_xll.qlRateHelperMaturityDate($B4,Trigger)</f>
         <v>42223</v>
       </c>
-      <c r="K4" s="202"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="201"/>
+      <c r="A5" s="200"/>
       <c r="B5" s="82" t="str">
         <f>Deposits!F7</f>
-        <v>obj_004b4#0000</v>
+        <v>obj_003b6#0001</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -3217,13 +3212,13 @@
         <f>_xll.qlRateHelperMaturityDate($B5,Trigger)</f>
         <v>42254</v>
       </c>
-      <c r="K5" s="202"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="203"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="83" t="str">
         <f>Futures!L4</f>
-        <v>obj_004c6#0000</v>
+        <v>obj_003bf#0001</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -3254,14 +3249,14 @@
         <f>_xll.qlRateHelperMaturityDate($B6,Trigger)</f>
         <v>42354</v>
       </c>
-      <c r="K6" s="202"/>
-      <c r="M6" s="207"/>
+      <c r="K6" s="201"/>
+      <c r="M6" s="206"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="203"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="82" t="str">
         <f>Futures!L5</f>
-        <v>obj_004c4#0000</v>
+        <v>obj_003bd#0001</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -3292,14 +3287,14 @@
         <f>_xll.qlRateHelperMaturityDate($B7,Trigger)</f>
         <v>42445</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="M7" s="207"/>
+      <c r="K7" s="201"/>
+      <c r="M7" s="206"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="203"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="82" t="str">
         <f>Futures!L6</f>
-        <v>obj_004ba#0000</v>
+        <v>obj_003ba#0001</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -3330,14 +3325,14 @@
         <f>_xll.qlRateHelperMaturityDate($B8,Trigger)</f>
         <v>42536</v>
       </c>
-      <c r="K8" s="202"/>
-      <c r="M8" s="207"/>
+      <c r="K8" s="201"/>
+      <c r="M8" s="206"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="203"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="82" t="str">
         <f>Futures!L7</f>
-        <v>obj_004c8#0000</v>
+        <v>obj_003bb#0001</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -3368,14 +3363,14 @@
         <f>_xll.qlRateHelperMaturityDate($B9,Trigger)</f>
         <v>42634</v>
       </c>
-      <c r="K9" s="202"/>
-      <c r="M9" s="207"/>
+      <c r="K9" s="201"/>
+      <c r="M9" s="206"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="203"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="82" t="str">
         <f>Futures!L8</f>
-        <v>obj_004bd#0000</v>
+        <v>obj_003bc#0001</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -3406,14 +3401,14 @@
         <f>_xll.qlRateHelperMaturityDate($B10,Trigger)</f>
         <v>42725</v>
       </c>
-      <c r="K10" s="202"/>
-      <c r="M10" s="207"/>
+      <c r="K10" s="201"/>
+      <c r="M10" s="206"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="203"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="82" t="str">
         <f>Futures!L9</f>
-        <v>obj_004cb#0000</v>
+        <v>obj_003be#0001</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -3444,14 +3439,14 @@
         <f>_xll.qlRateHelperMaturityDate($B11,Trigger)</f>
         <v>42809</v>
       </c>
-      <c r="K11" s="202"/>
-      <c r="M11" s="207"/>
+      <c r="K11" s="201"/>
+      <c r="M11" s="206"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="203"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="82" t="str">
         <f>Futures!L10</f>
-        <v>obj_004b9#0000</v>
+        <v>obj_003b9#0001</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -3482,52 +3477,52 @@
         <f>_xll.qlRateHelperMaturityDate($B12,Trigger)</f>
         <v>42907</v>
       </c>
-      <c r="K12" s="202"/>
-      <c r="M12" s="207"/>
+      <c r="K12" s="201"/>
+      <c r="M12" s="206"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="203"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="84" t="str">
         <f>Futures!L11</f>
-        <v>obj_004b8#0000</v>
-      </c>
-      <c r="C13" s="192" t="str">
+        <v>obj_003b8#0001</v>
+      </c>
+      <c r="C13" s="191" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
         <v>FSSM7_LCHQuote</v>
       </c>
-      <c r="D13" s="193">
+      <c r="D13" s="192">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
         <v>98.553199979999988</v>
       </c>
-      <c r="E13" s="194">
+      <c r="E13" s="193">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B13,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="195" t="b">
+      <c r="F13" s="194" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="195">
+      <c r="G13" s="194">
         <v>60</v>
       </c>
-      <c r="H13" s="195">
+      <c r="H13" s="194">
         <v>1</v>
       </c>
-      <c r="I13" s="196">
+      <c r="I13" s="195">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
         <v>42907</v>
       </c>
-      <c r="J13" s="197">
+      <c r="J13" s="196">
         <f>_xll.qlRateHelperMaturityDate($B13,Trigger)</f>
         <v>42998</v>
       </c>
-      <c r="K13" s="202"/>
-      <c r="M13" s="207"/>
+      <c r="K13" s="201"/>
+      <c r="M13" s="206"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="201"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="82" t="str">
         <f>Swaps!M4</f>
-        <v>obj_004c7#0000</v>
+        <v>obj_003c0#0001</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3558,14 +3553,14 @@
         <f>_xll.qlRateHelperMaturityDate($B14,Trigger)</f>
         <v>43290</v>
       </c>
-      <c r="K14" s="202"/>
-      <c r="M14" s="207"/>
+      <c r="K14" s="201"/>
+      <c r="M14" s="206"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="201"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="82" t="str">
         <f>Swaps!M5</f>
-        <v>obj_004c1#0000</v>
+        <v>obj_003cf#0001</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3596,14 +3591,14 @@
         <f>_xll.qlRateHelperMaturityDate($B15,Trigger)</f>
         <v>43654</v>
       </c>
-      <c r="K15" s="202"/>
-      <c r="M15" s="207"/>
+      <c r="K15" s="201"/>
+      <c r="M15" s="206"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="201"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="82" t="str">
         <f>Swaps!M6</f>
-        <v>obj_004c0#0000</v>
+        <v>obj_003c3#0001</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3634,14 +3629,14 @@
         <f>_xll.qlRateHelperMaturityDate($B16,Trigger)</f>
         <v>44019</v>
       </c>
-      <c r="K16" s="202"/>
-      <c r="M16" s="207"/>
+      <c r="K16" s="201"/>
+      <c r="M16" s="206"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="201"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="82" t="str">
         <f>Swaps!M7</f>
-        <v>obj_004bb#0000</v>
+        <v>obj_003c6#0001</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3672,14 +3667,14 @@
         <f>_xll.qlRateHelperMaturityDate($B17,Trigger)</f>
         <v>44384</v>
       </c>
-      <c r="K17" s="202"/>
-      <c r="M17" s="207"/>
+      <c r="K17" s="201"/>
+      <c r="M17" s="206"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="201"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="82" t="str">
         <f>Swaps!M8</f>
-        <v>obj_004bc#0000</v>
+        <v>obj_003c8#0001</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3710,14 +3705,14 @@
         <f>_xll.qlRateHelperMaturityDate($B18,Trigger)</f>
         <v>44749</v>
       </c>
-      <c r="K18" s="202"/>
-      <c r="M18" s="207"/>
+      <c r="K18" s="201"/>
+      <c r="M18" s="206"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="201"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="82" t="str">
         <f>Swaps!M9</f>
-        <v>obj_004cd#0000</v>
+        <v>obj_003ce#0001</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3748,14 +3743,14 @@
         <f>_xll.qlRateHelperMaturityDate($B19,Trigger)</f>
         <v>45114</v>
       </c>
-      <c r="K19" s="202"/>
-      <c r="M19" s="207"/>
+      <c r="K19" s="201"/>
+      <c r="M19" s="206"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="201"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="82" t="str">
         <f>Swaps!M10</f>
-        <v>obj_004c9#0000</v>
+        <v>obj_003c5#0001</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3786,14 +3781,14 @@
         <f>_xll.qlRateHelperMaturityDate($B20,Trigger)</f>
         <v>45481</v>
       </c>
-      <c r="K20" s="202"/>
-      <c r="M20" s="207"/>
+      <c r="K20" s="201"/>
+      <c r="M20" s="206"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="201"/>
+      <c r="A21" s="200"/>
       <c r="B21" s="82" t="str">
         <f>Swaps!M11</f>
-        <v>obj_004ca#0000</v>
+        <v>obj_003c2#0001</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3824,14 +3819,14 @@
         <f>_xll.qlRateHelperMaturityDate($B21,Trigger)</f>
         <v>45845</v>
       </c>
-      <c r="K21" s="202"/>
-      <c r="M21" s="207"/>
+      <c r="K21" s="201"/>
+      <c r="M21" s="206"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="201"/>
+      <c r="A22" s="200"/>
       <c r="B22" s="82" t="str">
         <f>Swaps!M12</f>
-        <v>obj_004bf#0000</v>
+        <v>obj_003cd#0001</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3862,14 +3857,14 @@
         <f>_xll.qlRateHelperMaturityDate($B22,Trigger)</f>
         <v>46575</v>
       </c>
-      <c r="K22" s="202"/>
-      <c r="M22" s="207"/>
+      <c r="K22" s="201"/>
+      <c r="M22" s="206"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="201"/>
+      <c r="A23" s="200"/>
       <c r="B23" s="82" t="str">
         <f>Swaps!M13</f>
-        <v>obj_004b6#0000</v>
+        <v>obj_003cc#0001</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
@@ -3900,14 +3895,14 @@
         <f>_xll.qlRateHelperMaturityDate($B23,Trigger)</f>
         <v>47672</v>
       </c>
-      <c r="K23" s="202"/>
-      <c r="M23" s="207"/>
+      <c r="K23" s="201"/>
+      <c r="M23" s="206"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="201"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="82" t="str">
         <f>Swaps!M14</f>
-        <v>obj_004c5#0000</v>
+        <v>obj_003cb#0001</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3938,13 +3933,13 @@
         <f>_xll.qlRateHelperMaturityDate($B24,Trigger)</f>
         <v>49499</v>
       </c>
-      <c r="K24" s="202"/>
+      <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="201"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="82" t="str">
         <f>Swaps!M15</f>
-        <v>obj_004c2#0000</v>
+        <v>obj_003ca#0001</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
@@ -3975,13 +3970,13 @@
         <f>_xll.qlRateHelperMaturityDate($B25,Trigger)</f>
         <v>51326</v>
       </c>
-      <c r="K25" s="202"/>
+      <c r="K25" s="201"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="201"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="82" t="str">
         <f>Swaps!M16</f>
-        <v>obj_004c3#0000</v>
+        <v>obj_003c9#0001</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
@@ -4012,14 +4007,14 @@
         <f>_xll.qlRateHelperMaturityDate($B26,Trigger)</f>
         <v>53150</v>
       </c>
-      <c r="K26" s="202"/>
-      <c r="L26" s="208"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="207"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="201"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="82" t="str">
         <f>Swaps!M17</f>
-        <v>obj_004be#0000</v>
+        <v>obj_003c7#0001</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
@@ -4050,14 +4045,14 @@
         <f>_xll.qlRateHelperMaturityDate($B27,Trigger)</f>
         <v>56802</v>
       </c>
-      <c r="K27" s="202"/>
-      <c r="L27" s="208"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="207"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="201"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="82" t="str">
         <f>Swaps!M18</f>
-        <v>obj_004b7#0000</v>
+        <v>obj_003c4#0001</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
@@ -4088,14 +4083,14 @@
         <f>_xll.qlRateHelperMaturityDate($B28,Trigger)</f>
         <v>60455</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="208"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="207"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="201"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="84" t="str">
         <f>Swaps!M19</f>
-        <v>obj_004cc#0000</v>
+        <v>obj_003c1#0001</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
@@ -4126,76 +4121,76 @@
         <f>_xll.qlRateHelperMaturityDate($B29,Trigger)</f>
         <v>64108</v>
       </c>
-      <c r="K29" s="202"/>
-      <c r="L29" s="208"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="207"/>
     </row>
     <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204"/>
-      <c r="B30" s="205"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="206"/>
-      <c r="L30" s="208"/>
+      <c r="A30" s="203"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="205"/>
+      <c r="L30" s="207"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L31" s="208"/>
+      <c r="L31" s="207"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L32" s="208"/>
+      <c r="L32" s="207"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L33" s="208"/>
+      <c r="L33" s="207"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L34" s="208"/>
+      <c r="L34" s="207"/>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L35" s="208"/>
+      <c r="L35" s="207"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L36" s="208"/>
+      <c r="L36" s="207"/>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L37" s="208"/>
+      <c r="L37" s="207"/>
     </row>
     <row r="38" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L38" s="208"/>
+      <c r="L38" s="207"/>
     </row>
     <row r="39" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L39" s="208"/>
+      <c r="L39" s="207"/>
     </row>
     <row r="40" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L40" s="208"/>
+      <c r="L40" s="207"/>
     </row>
     <row r="41" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L41" s="208"/>
+      <c r="L41" s="207"/>
     </row>
     <row r="42" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L42" s="208"/>
+      <c r="L42" s="207"/>
     </row>
     <row r="43" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="208"/>
+      <c r="L43" s="207"/>
     </row>
     <row r="44" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="208"/>
+      <c r="L44" s="207"/>
     </row>
     <row r="45" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L45" s="208"/>
+      <c r="L45" s="207"/>
     </row>
     <row r="46" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L46" s="208"/>
+      <c r="L46" s="207"/>
     </row>
     <row r="47" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L47" s="208"/>
+      <c r="L47" s="207"/>
     </row>
     <row r="48" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L48" s="208"/>
+      <c r="L48" s="207"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4216,49 +4211,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="247" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="247" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="247" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="252" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="252" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8" style="252" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="252" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="252" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="252" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="247" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="247" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="247"/>
-    <col min="14" max="14" width="17.28515625" style="247" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="247"/>
-    <col min="17" max="17" width="10" style="248" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="247"/>
+    <col min="1" max="1" width="24.42578125" style="246" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="246" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="246" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="251" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="251" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8" style="251" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="251" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="251" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="251" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="246" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" style="246" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="246"/>
+    <col min="14" max="14" width="17.28515625" style="246" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="246"/>
+    <col min="17" max="17" width="10" style="247" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="246"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="273"/>
+      <c r="B1" s="272"/>
       <c r="D1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210" t="s">
+      <c r="G1" s="209"/>
+      <c r="H1" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="267" t="s">
+      <c r="I1" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="211" t="s">
+      <c r="J1" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="254">
+      <c r="K1" s="253">
         <f t="array" ref="K1:K126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
         <v>4.8249681089873224E-3</v>
       </c>
@@ -4272,36 +4267,36 @@
       </c>
       <c r="D2" s="11" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_004b2</v>
-      </c>
-      <c r="E2" s="253" t="str">
+        <v>obj_003b4</v>
+      </c>
+      <c r="E2" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
         <v>GBPOND_LCHQuote</v>
       </c>
-      <c r="F2" s="254">
+      <c r="F2" s="253">
         <f>_xll.qlRateHelperRate($D2)</f>
         <v>4.8250000000000003E-3</v>
       </c>
-      <c r="G2" s="254" t="str">
+      <c r="G2" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>--</v>
       </c>
-      <c r="H2" s="250">
+      <c r="H2" s="249">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
         <v>42192</v>
       </c>
-      <c r="I2" s="250">
+      <c r="I2" s="249">
         <f>_xll.qlRateHelperMaturityDate(D2)</f>
         <v>42193</v>
       </c>
-      <c r="J2" s="255">
+      <c r="J2" s="254">
         <f>_xll.qlRateHelperPillarDate($D2)</f>
         <v>42193</v>
       </c>
-      <c r="K2" s="254">
+      <c r="K2" s="253">
         <v>4.8249681089873224E-3</v>
       </c>
-      <c r="Q2" s="249"/>
+      <c r="Q2" s="248"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -4311,36 +4306,36 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="str">
-        <v>obj_004b3</v>
-      </c>
-      <c r="E3" s="253" t="str">
+        <v>obj_003b5</v>
+      </c>
+      <c r="E3" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
         <v>GBP1WD_LCHQuote</v>
       </c>
-      <c r="F3" s="254">
+      <c r="F3" s="253">
         <f>_xll.qlRateHelperRate($D3)</f>
         <v>4.8925000000000001E-3</v>
       </c>
-      <c r="G3" s="254" t="str">
+      <c r="G3" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>--</v>
       </c>
-      <c r="H3" s="250">
+      <c r="H3" s="249">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
         <v>42192</v>
       </c>
-      <c r="I3" s="250">
+      <c r="I3" s="249">
         <f>_xll.qlRateHelperMaturityDate(D3)</f>
         <v>42199</v>
       </c>
-      <c r="J3" s="255">
+      <c r="J3" s="254">
         <f>_xll.qlRateHelperPillarDate($D3)</f>
         <v>42199</v>
       </c>
-      <c r="K3" s="254">
+      <c r="K3" s="253">
         <v>4.8922704857405569E-3</v>
       </c>
-      <c r="Q3" s="249"/>
+      <c r="Q3" s="248"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -4350,36 +4345,36 @@
         <v>8</v>
       </c>
       <c r="D4" s="11" t="str">
-        <v>obj_004b5</v>
-      </c>
-      <c r="E4" s="253" t="str">
+        <v>obj_003b7</v>
+      </c>
+      <c r="E4" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
         <v>GBP1MD_LCHQuote</v>
       </c>
-      <c r="F4" s="254">
+      <c r="F4" s="253">
         <f>_xll.qlRateHelperRate($D4)</f>
         <v>5.0724999999999998E-3</v>
       </c>
-      <c r="G4" s="254" t="str">
+      <c r="G4" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>--</v>
       </c>
-      <c r="H4" s="250">
+      <c r="H4" s="249">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
         <v>42192</v>
       </c>
-      <c r="I4" s="250">
+      <c r="I4" s="249">
         <f>_xll.qlRateHelperMaturityDate(D4)</f>
         <v>42223</v>
       </c>
-      <c r="J4" s="255">
+      <c r="J4" s="254">
         <f>_xll.qlRateHelperPillarDate($D4)</f>
         <v>42223</v>
       </c>
-      <c r="K4" s="254">
+      <c r="K4" s="253">
         <v>5.0714076590036355E-3</v>
       </c>
-      <c r="Q4" s="249"/>
+      <c r="Q4" s="248"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -4389,3964 +4384,3964 @@
         <v>98</v>
       </c>
       <c r="D5" s="11" t="str">
-        <v>obj_004b4</v>
-      </c>
-      <c r="E5" s="253" t="str">
+        <v>obj_003b6</v>
+      </c>
+      <c r="E5" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
         <v>GBP2MD_LCHQuote</v>
       </c>
-      <c r="F5" s="254">
+      <c r="F5" s="253">
         <f>_xll.qlRateHelperRate($D5)</f>
         <v>5.3899999999999998E-3</v>
       </c>
-      <c r="G5" s="254" t="str">
+      <c r="G5" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>--</v>
       </c>
-      <c r="H5" s="250">
+      <c r="H5" s="249">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
         <v>42192</v>
       </c>
-      <c r="I5" s="250">
+      <c r="I5" s="249">
         <f>_xll.qlRateHelperMaturityDate(D5)</f>
         <v>42254</v>
       </c>
-      <c r="J5" s="255">
+      <c r="J5" s="254">
         <f>_xll.qlRateHelperPillarDate($D5)</f>
         <v>42254</v>
       </c>
-      <c r="K5" s="254">
+      <c r="K5" s="253">
         <v>5.3875340663973202E-3</v>
       </c>
-      <c r="N5" s="250"/>
-      <c r="Q5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="Q5" s="248"/>
     </row>
     <row r="6" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="212" t="str">
+      <c r="B6" s="211" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
       <c r="D6" s="11" t="str">
-        <v>obj_004c6</v>
-      </c>
-      <c r="E6" s="253" t="str">
+        <v>obj_003bf</v>
+      </c>
+      <c r="E6" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
         <v>FSSU5_LCHQuote</v>
       </c>
-      <c r="F6" s="254">
+      <c r="F6" s="253">
         <f>_xll.qlRateHelperRate($D6)</f>
         <v>6.0940000000000438E-3</v>
       </c>
-      <c r="G6" s="254">
+      <c r="G6" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="250">
+      <c r="H6" s="249">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
         <v>42263</v>
       </c>
-      <c r="I6" s="250">
+      <c r="I6" s="249">
         <f>_xll.qlRateHelperMaturityDate(D6)</f>
         <v>42354</v>
       </c>
-      <c r="J6" s="255">
+      <c r="J6" s="254">
         <f>_xll.qlRateHelperPillarDate($D6)</f>
         <v>42354</v>
       </c>
-      <c r="K6" s="254">
+      <c r="K6" s="253">
         <v>5.7979675347552785E-3</v>
       </c>
-      <c r="N6" s="250"/>
-      <c r="Q6" s="249"/>
+      <c r="N6" s="249"/>
+      <c r="Q6" s="248"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D7" s="253" t="str">
-        <v>obj_004c4</v>
-      </c>
-      <c r="E7" s="253" t="str">
+      <c r="D7" s="252" t="str">
+        <v>obj_003bd</v>
+      </c>
+      <c r="E7" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
         <v>FSSZ5_LCHQuote</v>
       </c>
-      <c r="F7" s="254">
+      <c r="F7" s="253">
         <f>_xll.qlRateHelperRate($D7)</f>
         <v>6.6829999999999945E-3</v>
       </c>
-      <c r="G7" s="254">
+      <c r="G7" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="250">
+      <c r="H7" s="249">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
         <v>42354</v>
       </c>
-      <c r="I7" s="250">
+      <c r="I7" s="249">
         <f>_xll.qlRateHelperMaturityDate(D7)</f>
         <v>42445</v>
       </c>
-      <c r="J7" s="255">
+      <c r="J7" s="254">
         <f>_xll.qlRateHelperPillarDate($D7)</f>
         <v>42445</v>
       </c>
-      <c r="K7" s="254">
+      <c r="K7" s="253">
         <v>6.1142990465037879E-3</v>
       </c>
-      <c r="N7" s="250"/>
-      <c r="Q7" s="247"/>
+      <c r="N7" s="249"/>
+      <c r="Q7" s="246"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D8" s="253" t="str">
-        <v>obj_004ba</v>
-      </c>
-      <c r="E8" s="253" t="str">
+      <c r="D8" s="252" t="str">
+        <v>obj_003ba</v>
+      </c>
+      <c r="E8" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
         <v>FSSH6_LCHQuote</v>
       </c>
-      <c r="F8" s="254">
+      <c r="F8" s="253">
         <f>_xll.qlRateHelperRate($D8)</f>
         <v>7.6669959999999815E-3</v>
       </c>
-      <c r="G8" s="254">
+      <c r="G8" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="250">
+      <c r="H8" s="249">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
         <v>42445</v>
       </c>
-      <c r="I8" s="250">
+      <c r="I8" s="249">
         <f>_xll.qlRateHelperMaturityDate(D8)</f>
         <v>42536</v>
       </c>
-      <c r="J8" s="255">
+      <c r="J8" s="254">
         <f>_xll.qlRateHelperPillarDate($D8)</f>
         <v>42536</v>
       </c>
-      <c r="K8" s="254">
+      <c r="K8" s="253">
         <v>6.523105583034098E-3</v>
       </c>
-      <c r="N8" s="250"/>
-      <c r="Q8" s="249"/>
+      <c r="N8" s="249"/>
+      <c r="Q8" s="248"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D9" s="253" t="str">
-        <v>obj_004c8</v>
-      </c>
-      <c r="E9" s="253" t="str">
+      <c r="D9" s="252" t="str">
+        <v>obj_003bb</v>
+      </c>
+      <c r="E9" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
         <v>FSSM6_LCHQuote</v>
       </c>
-      <c r="F9" s="254">
+      <c r="F9" s="253">
         <f>_xll.qlRateHelperRate($D9)</f>
         <v>8.9449874999999457E-3</v>
       </c>
-      <c r="G9" s="254">
+      <c r="G9" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="250">
+      <c r="H9" s="249">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
         <v>42536</v>
       </c>
-      <c r="I9" s="250">
+      <c r="I9" s="249">
         <f>_xll.qlRateHelperMaturityDate(D9)</f>
         <v>42634</v>
       </c>
-      <c r="J9" s="255">
+      <c r="J9" s="254">
         <f>_xll.qlRateHelperPillarDate($D9)</f>
         <v>42634</v>
       </c>
-      <c r="K9" s="254">
+      <c r="K9" s="253">
         <v>7.0577061456478475E-3</v>
       </c>
-      <c r="N9" s="250"/>
-      <c r="P9" s="248"/>
-      <c r="Q9" s="249"/>
+      <c r="N9" s="249"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" s="248"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D10" s="253" t="str">
-        <v>obj_004bd</v>
-      </c>
-      <c r="E10" s="253" t="str">
+      <c r="D10" s="252" t="str">
+        <v>obj_003bc</v>
+      </c>
+      <c r="E10" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
         <v>FSSU6_LCHQuote</v>
       </c>
-      <c r="F10" s="254">
+      <c r="F10" s="253">
         <f>_xll.qlRateHelperRate($D10)</f>
         <v>1.0419999999999985E-2</v>
       </c>
-      <c r="G10" s="254">
+      <c r="G10" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="250">
+      <c r="H10" s="249">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
         <v>42634</v>
       </c>
-      <c r="I10" s="250">
+      <c r="I10" s="249">
         <f>_xll.qlRateHelperMaturityDate(D10)</f>
         <v>42725</v>
       </c>
-      <c r="J10" s="255">
+      <c r="J10" s="254">
         <f>_xll.qlRateHelperPillarDate($D10)</f>
         <v>42725</v>
       </c>
-      <c r="K10" s="254">
+      <c r="K10" s="253">
         <v>7.6294494793911647E-3</v>
       </c>
-      <c r="N10" s="250"/>
-      <c r="P10" s="248"/>
-      <c r="Q10" s="249"/>
+      <c r="N10" s="249"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="248"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D11" s="253" t="str">
-        <v>obj_004cb</v>
-      </c>
-      <c r="E11" s="253" t="str">
+      <c r="D11" s="252" t="str">
+        <v>obj_003be</v>
+      </c>
+      <c r="E11" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
         <v>FSSZ6_LCHQuote</v>
       </c>
-      <c r="F11" s="254">
+      <c r="F11" s="253">
         <f>_xll.qlRateHelperRate($D11)</f>
         <v>1.1892000000000014E-2</v>
       </c>
-      <c r="G11" s="254">
+      <c r="G11" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="250">
+      <c r="H11" s="249">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
         <v>42725</v>
       </c>
-      <c r="I11" s="250">
+      <c r="I11" s="249">
         <f>_xll.qlRateHelperMaturityDate(D11)</f>
         <v>42809</v>
       </c>
-      <c r="J11" s="255">
+      <c r="J11" s="254">
         <f>_xll.qlRateHelperPillarDate($D11)</f>
         <v>42809</v>
       </c>
-      <c r="K11" s="254">
+      <c r="K11" s="253">
         <v>8.2075528910626923E-3</v>
       </c>
-      <c r="N11" s="250"/>
-      <c r="Q11" s="249"/>
+      <c r="N11" s="249"/>
+      <c r="Q11" s="248"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D12" s="253" t="str">
-        <v>obj_004b9</v>
-      </c>
-      <c r="E12" s="253" t="str">
+      <c r="D12" s="252" t="str">
+        <v>obj_003b9</v>
+      </c>
+      <c r="E12" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
         <v>FSSH7_LCHQuote</v>
       </c>
-      <c r="F12" s="254">
+      <c r="F12" s="253">
         <f>_xll.qlRateHelperRate($D12)</f>
         <v>1.3206967499999944E-2</v>
       </c>
-      <c r="G12" s="254">
+      <c r="G12" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="250">
+      <c r="H12" s="249">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
         <v>42809</v>
       </c>
-      <c r="I12" s="250">
+      <c r="I12" s="249">
         <f>_xll.qlRateHelperMaturityDate(D12)</f>
         <v>42907</v>
       </c>
-      <c r="J12" s="255">
+      <c r="J12" s="254">
         <f>_xll.qlRateHelperPillarDate($D12)</f>
         <v>42907</v>
       </c>
-      <c r="K12" s="254">
+      <c r="K12" s="253">
         <v>8.8895854663884766E-3</v>
       </c>
-      <c r="N12" s="250"/>
-      <c r="Q12" s="249"/>
+      <c r="N12" s="249"/>
+      <c r="Q12" s="248"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D13" s="253" t="str">
-        <v>obj_004b8</v>
-      </c>
-      <c r="E13" s="253" t="str">
+      <c r="D13" s="252" t="str">
+        <v>obj_003b8</v>
+      </c>
+      <c r="E13" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
         <v>FSSM7_LCHQuote</v>
       </c>
-      <c r="F13" s="254">
+      <c r="F13" s="253">
         <f>_xll.qlRateHelperRate($D13)</f>
         <v>1.4468000200000164E-2</v>
       </c>
-      <c r="G13" s="254">
+      <c r="G13" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="250">
+      <c r="H13" s="249">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
         <v>42907</v>
       </c>
-      <c r="I13" s="250">
+      <c r="I13" s="249">
         <f>_xll.qlRateHelperMaturityDate(D13)</f>
         <v>42998</v>
       </c>
-      <c r="J13" s="255">
+      <c r="J13" s="254">
         <f>_xll.qlRateHelperPillarDate($D13)</f>
         <v>42998</v>
       </c>
-      <c r="K13" s="254">
+      <c r="K13" s="253">
         <v>9.5164674879781586E-3</v>
       </c>
-      <c r="N13" s="250"/>
-      <c r="Q13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="Q13" s="248"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D14" s="253" t="str">
-        <v>obj_004c7</v>
-      </c>
-      <c r="E14" s="253" t="str">
+      <c r="D14" s="252" t="str">
+        <v>obj_003c0</v>
+      </c>
+      <c r="E14" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
         <v>GBPSB6L3Y_LCHQuote</v>
       </c>
-      <c r="F14" s="254">
+      <c r="F14" s="253">
         <f>_xll.qlRateHelperRate($D14)</f>
         <v>1.2434499999999999E-2</v>
       </c>
-      <c r="G14" s="254">
+      <c r="G14" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="250">
+      <c r="H14" s="249">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
         <v>42192</v>
       </c>
-      <c r="I14" s="250">
+      <c r="I14" s="249">
         <f>_xll.qlRateHelperMaturityDate(D14)</f>
         <v>43290</v>
       </c>
-      <c r="J14" s="255">
+      <c r="J14" s="254">
         <f>_xll.qlRateHelperPillarDate($D14)</f>
         <v>43290</v>
       </c>
-      <c r="K14" s="254">
+      <c r="K14" s="253">
         <v>1.2449863146028263E-2</v>
       </c>
-      <c r="Q14" s="249"/>
+      <c r="Q14" s="248"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D15" s="253" t="str">
-        <v>obj_004c1</v>
-      </c>
-      <c r="E15" s="253" t="str">
+      <c r="D15" s="252" t="str">
+        <v>obj_003cf</v>
+      </c>
+      <c r="E15" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
         <v>GBPSB6L4Y_LCHQuote</v>
       </c>
-      <c r="F15" s="254">
+      <c r="F15" s="253">
         <f>_xll.qlRateHelperRate($D15)</f>
         <v>1.4245499999999999E-2</v>
       </c>
-      <c r="G15" s="254">
+      <c r="G15" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="250">
+      <c r="H15" s="249">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
         <v>42192</v>
       </c>
-      <c r="I15" s="250">
+      <c r="I15" s="249">
         <f>_xll.qlRateHelperMaturityDate(D15)</f>
         <v>43654</v>
       </c>
-      <c r="J15" s="255">
+      <c r="J15" s="254">
         <f>_xll.qlRateHelperPillarDate($D15)</f>
         <v>43654</v>
       </c>
-      <c r="K15" s="254">
+      <c r="K15" s="253">
         <v>1.4280616007137956E-2</v>
       </c>
-      <c r="Q15" s="249"/>
+      <c r="Q15" s="248"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D16" s="253" t="str">
-        <v>obj_004c0</v>
-      </c>
-      <c r="E16" s="253" t="str">
+      <c r="D16" s="252" t="str">
+        <v>obj_003c3</v>
+      </c>
+      <c r="E16" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
         <v>GBPSB6L5Y_LCHQuote</v>
       </c>
-      <c r="F16" s="254">
+      <c r="F16" s="253">
         <f>_xll.qlRateHelperRate($D16)</f>
         <v>1.5703249999999998E-2</v>
       </c>
-      <c r="G16" s="254">
+      <c r="G16" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="250">
+      <c r="H16" s="249">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
         <v>42192</v>
       </c>
-      <c r="I16" s="250">
+      <c r="I16" s="249">
         <f>_xll.qlRateHelperMaturityDate(D16)</f>
         <v>44019</v>
       </c>
-      <c r="J16" s="255">
+      <c r="J16" s="254">
         <f>_xll.qlRateHelperPillarDate($D16)</f>
         <v>44019</v>
       </c>
-      <c r="K16" s="254">
+      <c r="K16" s="253">
         <v>1.5764882383579228E-2</v>
       </c>
-      <c r="N16" s="251"/>
-      <c r="Q16" s="249"/>
+      <c r="N16" s="250"/>
+      <c r="Q16" s="248"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D17" s="253" t="str">
-        <v>obj_004bb</v>
-      </c>
-      <c r="E17" s="253" t="str">
+      <c r="D17" s="252" t="str">
+        <v>obj_003c6</v>
+      </c>
+      <c r="E17" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
         <v>GBPSB6L6Y_LCHQuote</v>
       </c>
-      <c r="F17" s="254">
+      <c r="F17" s="253">
         <f>_xll.qlRateHelperRate($D17)</f>
         <v>1.6909750000000001E-2</v>
       </c>
-      <c r="G17" s="254">
+      <c r="G17" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="250">
+      <c r="H17" s="249">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
         <v>42192</v>
       </c>
-      <c r="I17" s="250">
+      <c r="I17" s="249">
         <f>_xll.qlRateHelperMaturityDate(D17)</f>
         <v>44384</v>
       </c>
-      <c r="J17" s="255">
+      <c r="J17" s="254">
         <f>_xll.qlRateHelperPillarDate($D17)</f>
         <v>44384</v>
       </c>
-      <c r="K17" s="254">
+      <c r="K17" s="253">
         <v>1.700258549519737E-2</v>
       </c>
-      <c r="Q17" s="249"/>
+      <c r="Q17" s="248"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D18" s="253" t="str">
-        <v>obj_004bc</v>
-      </c>
-      <c r="E18" s="253" t="str">
+      <c r="D18" s="252" t="str">
+        <v>obj_003c8</v>
+      </c>
+      <c r="E18" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
         <v>GBPSB6L7Y_LCHQuote</v>
       </c>
-      <c r="F18" s="254">
+      <c r="F18" s="253">
         <f>_xll.qlRateHelperRate($D18)</f>
         <v>1.7912000000000001E-2</v>
       </c>
-      <c r="G18" s="254">
+      <c r="G18" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="250">
+      <c r="H18" s="249">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
         <v>42192</v>
       </c>
-      <c r="I18" s="250">
+      <c r="I18" s="249">
         <f>_xll.qlRateHelperMaturityDate(D18)</f>
         <v>44749</v>
       </c>
-      <c r="J18" s="255">
+      <c r="J18" s="254">
         <f>_xll.qlRateHelperPillarDate($D18)</f>
         <v>44749</v>
       </c>
-      <c r="K18" s="254">
+      <c r="K18" s="253">
         <v>1.8038048498500391E-2</v>
       </c>
-      <c r="N18" s="251"/>
-      <c r="Q18" s="249"/>
+      <c r="N18" s="250"/>
+      <c r="Q18" s="248"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D19" s="253" t="str">
-        <v>obj_004cd</v>
-      </c>
-      <c r="E19" s="253" t="str">
+      <c r="D19" s="252" t="str">
+        <v>obj_003ce</v>
+      </c>
+      <c r="E19" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
         <v>GBPSB6L8Y_LCHQuote</v>
       </c>
-      <c r="F19" s="254">
+      <c r="F19" s="253">
         <f>_xll.qlRateHelperRate($D19)</f>
         <v>1.8738000000000001E-2</v>
       </c>
-      <c r="G19" s="254">
+      <c r="G19" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="250">
+      <c r="H19" s="249">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
         <v>42192</v>
       </c>
-      <c r="I19" s="250">
+      <c r="I19" s="249">
         <f>_xll.qlRateHelperMaturityDate(D19)</f>
         <v>45114</v>
       </c>
-      <c r="J19" s="255">
+      <c r="J19" s="254">
         <f>_xll.qlRateHelperPillarDate($D19)</f>
         <v>45114</v>
       </c>
-      <c r="K19" s="254">
+      <c r="K19" s="253">
         <v>1.8897500156877509E-2</v>
       </c>
-      <c r="N19" s="251"/>
-      <c r="Q19" s="249"/>
+      <c r="N19" s="250"/>
+      <c r="Q19" s="248"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D20" s="253" t="str">
-        <v>obj_004c9</v>
-      </c>
-      <c r="E20" s="253" t="str">
+      <c r="D20" s="252" t="str">
+        <v>obj_003c5</v>
+      </c>
+      <c r="E20" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
         <v>GBPSB6L9Y_LCHQuote</v>
       </c>
-      <c r="F20" s="254">
+      <c r="F20" s="253">
         <f>_xll.qlRateHelperRate($D20)</f>
         <v>1.9422999999999999E-2</v>
       </c>
-      <c r="G20" s="254">
+      <c r="G20" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="250">
+      <c r="H20" s="249">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
         <v>42192</v>
       </c>
-      <c r="I20" s="250">
+      <c r="I20" s="249">
         <f>_xll.qlRateHelperMaturityDate(D20)</f>
         <v>45481</v>
       </c>
-      <c r="J20" s="255">
+      <c r="J20" s="254">
         <f>_xll.qlRateHelperPillarDate($D20)</f>
         <v>45481</v>
       </c>
-      <c r="K20" s="254">
+      <c r="K20" s="253">
         <v>1.9613705768062015E-2</v>
       </c>
-      <c r="N20" s="251"/>
-      <c r="Q20" s="249"/>
+      <c r="N20" s="250"/>
+      <c r="Q20" s="248"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D21" s="253" t="str">
-        <v>obj_004ca</v>
-      </c>
-      <c r="E21" s="253" t="str">
+      <c r="D21" s="252" t="str">
+        <v>obj_003c2</v>
+      </c>
+      <c r="E21" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
         <v>GBPSB6L10Y_LCHQuote</v>
       </c>
-      <c r="F21" s="254">
+      <c r="F21" s="253">
         <f>_xll.qlRateHelperRate($D21)</f>
         <v>2.002E-2</v>
       </c>
-      <c r="G21" s="254">
+      <c r="G21" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
         <v>0</v>
       </c>
-      <c r="H21" s="250">
+      <c r="H21" s="249">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
         <v>42192</v>
       </c>
-      <c r="I21" s="250">
+      <c r="I21" s="249">
         <f>_xll.qlRateHelperMaturityDate(D21)</f>
         <v>45845</v>
       </c>
-      <c r="J21" s="255">
+      <c r="J21" s="254">
         <f>_xll.qlRateHelperPillarDate($D21)</f>
         <v>45845</v>
       </c>
-      <c r="K21" s="254">
+      <c r="K21" s="253">
         <v>2.0242816762127608E-2</v>
       </c>
-      <c r="N21" s="251"/>
-      <c r="Q21" s="249"/>
+      <c r="N21" s="250"/>
+      <c r="Q21" s="248"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D22" s="253" t="str">
-        <v>obj_004bf</v>
-      </c>
-      <c r="E22" s="253" t="str">
+      <c r="D22" s="252" t="str">
+        <v>obj_003cd</v>
+      </c>
+      <c r="E22" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
         <v>GBPSB6L12Y_LCHQuote</v>
       </c>
-      <c r="F22" s="254">
+      <c r="F22" s="253">
         <f>_xll.qlRateHelperRate($D22)</f>
         <v>2.1028000000000002E-2</v>
       </c>
-      <c r="G22" s="254">
+      <c r="G22" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
         <v>0</v>
       </c>
-      <c r="H22" s="250">
+      <c r="H22" s="249">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
         <v>42192</v>
       </c>
-      <c r="I22" s="250">
+      <c r="I22" s="249">
         <f>_xll.qlRateHelperMaturityDate(D22)</f>
         <v>46575</v>
       </c>
-      <c r="J22" s="255">
+      <c r="J22" s="254">
         <f>_xll.qlRateHelperPillarDate($D22)</f>
         <v>46575</v>
       </c>
-      <c r="K22" s="254">
+      <c r="K22" s="253">
         <v>2.131851598185338E-2</v>
       </c>
-      <c r="Q22" s="249"/>
+      <c r="Q22" s="248"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D23" s="253" t="str">
-        <v>obj_004b6</v>
-      </c>
-      <c r="E23" s="253" t="str">
+      <c r="D23" s="252" t="str">
+        <v>obj_003cc</v>
+      </c>
+      <c r="E23" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
         <v>GBPSB6L15Y_LCHQuote</v>
       </c>
-      <c r="F23" s="254">
+      <c r="F23" s="253">
         <f>_xll.qlRateHelperRate($D23)</f>
         <v>2.2006499999999998E-2</v>
       </c>
-      <c r="G23" s="254">
+      <c r="G23" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
-      <c r="H23" s="250">
+      <c r="H23" s="249">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
         <v>42192</v>
       </c>
-      <c r="I23" s="250">
+      <c r="I23" s="249">
         <f>_xll.qlRateHelperMaturityDate(D23)</f>
         <v>47672</v>
       </c>
-      <c r="J23" s="255">
+      <c r="J23" s="254">
         <f>_xll.qlRateHelperPillarDate($D23)</f>
         <v>47672</v>
       </c>
-      <c r="K23" s="254">
+      <c r="K23" s="253">
         <v>2.2370003175643388E-2</v>
       </c>
-      <c r="N23" s="251"/>
-      <c r="Q23" s="249"/>
+      <c r="N23" s="250"/>
+      <c r="Q23" s="248"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D24" s="253" t="str">
-        <v>obj_004c5</v>
-      </c>
-      <c r="E24" s="253" t="str">
+      <c r="D24" s="252" t="str">
+        <v>obj_003cb</v>
+      </c>
+      <c r="E24" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
         <v>GBPSB6L20Y_LCHQuote</v>
       </c>
-      <c r="F24" s="254">
+      <c r="F24" s="253">
         <f>_xll.qlRateHelperRate($D24)</f>
         <v>2.2692E-2</v>
       </c>
-      <c r="G24" s="254">
+      <c r="G24" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
         <v>0</v>
       </c>
-      <c r="H24" s="250">
+      <c r="H24" s="249">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
         <v>42192</v>
       </c>
-      <c r="I24" s="250">
+      <c r="I24" s="249">
         <f>_xll.qlRateHelperMaturityDate(D24)</f>
         <v>49499</v>
       </c>
-      <c r="J24" s="255">
+      <c r="J24" s="254">
         <f>_xll.qlRateHelperPillarDate($D24)</f>
         <v>49499</v>
       </c>
-      <c r="K24" s="254">
+      <c r="K24" s="253">
         <v>2.3079091041042034E-2</v>
       </c>
-      <c r="Q24" s="249"/>
+      <c r="Q24" s="248"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D25" s="253" t="str">
-        <v>obj_004c2</v>
-      </c>
-      <c r="E25" s="253" t="str">
+      <c r="D25" s="252" t="str">
+        <v>obj_003ca</v>
+      </c>
+      <c r="E25" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
         <v>GBPSB6L25Y_LCHQuote</v>
       </c>
-      <c r="F25" s="254">
+      <c r="F25" s="253">
         <f>_xll.qlRateHelperRate($D25)</f>
         <v>2.2744250000000001E-2</v>
       </c>
-      <c r="G25" s="254">
+      <c r="G25" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
         <v>0</v>
       </c>
-      <c r="H25" s="250">
+      <c r="H25" s="249">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
         <v>42192</v>
       </c>
-      <c r="I25" s="250">
+      <c r="I25" s="249">
         <f>_xll.qlRateHelperMaturityDate(D25)</f>
         <v>51326</v>
       </c>
-      <c r="J25" s="255">
+      <c r="J25" s="254">
         <f>_xll.qlRateHelperPillarDate($D25)</f>
         <v>51326</v>
       </c>
-      <c r="K25" s="254">
+      <c r="K25" s="253">
         <v>2.3043123743055068E-2</v>
       </c>
-      <c r="Q25" s="249"/>
+      <c r="Q25" s="248"/>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D26" s="253" t="str">
-        <v>obj_004c3</v>
-      </c>
-      <c r="E26" s="253" t="str">
+      <c r="D26" s="252" t="str">
+        <v>obj_003c9</v>
+      </c>
+      <c r="E26" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
         <v>GBPSB6L30Y_LCHQuote</v>
       </c>
-      <c r="F26" s="254">
+      <c r="F26" s="253">
         <f>_xll.qlRateHelperRate($D26)</f>
         <v>2.2680499999999999E-2</v>
       </c>
-      <c r="G26" s="254">
+      <c r="G26" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
-      <c r="H26" s="250">
+      <c r="H26" s="249">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
         <v>42192</v>
       </c>
-      <c r="I26" s="250">
+      <c r="I26" s="249">
         <f>_xll.qlRateHelperMaturityDate(D26)</f>
         <v>53150</v>
       </c>
-      <c r="J26" s="255">
+      <c r="J26" s="254">
         <f>_xll.qlRateHelperPillarDate($D26)</f>
         <v>53150</v>
       </c>
-      <c r="K26" s="254">
+      <c r="K26" s="253">
         <v>2.2884894744616774E-2</v>
       </c>
-      <c r="Q26" s="249"/>
+      <c r="Q26" s="248"/>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D27" s="253" t="str">
-        <v>obj_004be</v>
-      </c>
-      <c r="E27" s="253" t="str">
+      <c r="D27" s="252" t="str">
+        <v>obj_003c7</v>
+      </c>
+      <c r="E27" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
         <v>GBPSB6L40Y_LCHQuote</v>
       </c>
-      <c r="F27" s="254">
+      <c r="F27" s="253">
         <f>_xll.qlRateHelperRate($D27)</f>
         <v>2.2155000000000001E-2</v>
       </c>
-      <c r="G27" s="254">
+      <c r="G27" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
         <v>0</v>
       </c>
-      <c r="H27" s="250">
+      <c r="H27" s="249">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
         <v>42192</v>
       </c>
-      <c r="I27" s="250">
+      <c r="I27" s="249">
         <f>_xll.qlRateHelperMaturityDate(D27)</f>
         <v>56802</v>
       </c>
-      <c r="J27" s="255">
+      <c r="J27" s="254">
         <f>_xll.qlRateHelperPillarDate($D27)</f>
         <v>56802</v>
       </c>
-      <c r="K27" s="254">
+      <c r="K27" s="253">
         <v>2.2038251365366218E-2</v>
       </c>
-      <c r="Q27" s="249"/>
+      <c r="Q27" s="248"/>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D28" s="253" t="str">
-        <v>obj_004b7</v>
-      </c>
-      <c r="E28" s="253" t="str">
+      <c r="D28" s="252" t="str">
+        <v>obj_003c4</v>
+      </c>
+      <c r="E28" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
         <v>GBPSB6L50Y_LCHQuote</v>
       </c>
-      <c r="F28" s="254">
+      <c r="F28" s="253">
         <f>_xll.qlRateHelperRate($D28)</f>
         <v>2.1795499999999999E-2</v>
       </c>
-      <c r="G28" s="254">
+      <c r="G28" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>0</v>
       </c>
-      <c r="H28" s="250">
+      <c r="H28" s="249">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
         <v>42192</v>
       </c>
-      <c r="I28" s="250">
+      <c r="I28" s="249">
         <f>_xll.qlRateHelperMaturityDate(D28)</f>
         <v>60455</v>
       </c>
-      <c r="J28" s="255">
+      <c r="J28" s="254">
         <f>_xll.qlRateHelperPillarDate($D28)</f>
         <v>60455</v>
       </c>
-      <c r="K28" s="254">
+      <c r="K28" s="253">
         <v>2.1459981492162321E-2</v>
       </c>
-      <c r="Q28" s="249"/>
+      <c r="Q28" s="248"/>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D29" s="253" t="str">
-        <v>obj_004cc</v>
-      </c>
-      <c r="E29" s="253" t="str">
+      <c r="D29" s="252" t="str">
+        <v>obj_003c1</v>
+      </c>
+      <c r="E29" s="252" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
         <v>GBPSB6L60Y_LCHQuote</v>
       </c>
-      <c r="F29" s="254">
+      <c r="F29" s="253">
         <f>_xll.qlRateHelperRate($D29)</f>
         <v>2.1819999999999999E-2</v>
       </c>
-      <c r="G29" s="254">
+      <c r="G29" s="253">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="250">
+      <c r="H29" s="249">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
         <v>42192</v>
       </c>
-      <c r="I29" s="250">
+      <c r="I29" s="249">
         <f>_xll.qlRateHelperMaturityDate(D29)</f>
         <v>64108</v>
       </c>
-      <c r="J29" s="255">
+      <c r="J29" s="254">
         <f>_xll.qlRateHelperPillarDate($D29)</f>
         <v>64108</v>
       </c>
-      <c r="K29" s="254">
+      <c r="K29" s="253">
         <v>2.1540668605839128E-2</v>
       </c>
-      <c r="Q29" s="249"/>
+      <c r="Q29" s="248"/>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D30" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="253" t="e">
+      <c r="D30" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="254" t="e">
+      <c r="F30" s="253" t="e">
         <f>_xll.qlRateHelperRate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G30" s="254" t="str">
+      <c r="G30" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>--</v>
       </c>
-      <c r="H30" s="250" t="e">
+      <c r="H30" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="250" t="e">
+      <c r="I30" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="255" t="e">
+      <c r="J30" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="249"/>
+      <c r="K30" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="248"/>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D31" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="253" t="e">
+      <c r="D31" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="254" t="e">
+      <c r="F31" s="253" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G31" s="254" t="str">
+      <c r="G31" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>--</v>
       </c>
-      <c r="H31" s="250" t="e">
+      <c r="H31" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" s="250" t="e">
+      <c r="I31" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="255" t="e">
+      <c r="J31" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="249"/>
+      <c r="K31" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="248"/>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D32" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="253" t="e">
+      <c r="D32" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="254" t="e">
+      <c r="F32" s="253" t="e">
         <f>_xll.qlRateHelperRate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G32" s="254" t="str">
+      <c r="G32" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>--</v>
       </c>
-      <c r="H32" s="250" t="e">
+      <c r="H32" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="250" t="e">
+      <c r="I32" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="255" t="e">
+      <c r="J32" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" s="249"/>
+      <c r="K32" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="248"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D33" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="253" t="e">
+      <c r="D33" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="254" t="e">
+      <c r="F33" s="253" t="e">
         <f>_xll.qlRateHelperRate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G33" s="254" t="str">
+      <c r="G33" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>--</v>
       </c>
-      <c r="H33" s="250" t="e">
+      <c r="H33" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="250" t="e">
+      <c r="I33" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="255" t="e">
+      <c r="J33" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="249"/>
+      <c r="K33" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="248"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D34" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="253" t="e">
+      <c r="D34" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="254" t="e">
+      <c r="F34" s="253" t="e">
         <f>_xll.qlRateHelperRate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G34" s="254" t="str">
+      <c r="G34" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>--</v>
       </c>
-      <c r="H34" s="250" t="e">
+      <c r="H34" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" s="250" t="e">
+      <c r="I34" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="255" t="e">
+      <c r="J34" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="249"/>
+      <c r="K34" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="248"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D35" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="253" t="e">
+      <c r="D35" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="254" t="e">
+      <c r="F35" s="253" t="e">
         <f>_xll.qlRateHelperRate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G35" s="254" t="str">
+      <c r="G35" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>--</v>
       </c>
-      <c r="H35" s="250" t="e">
+      <c r="H35" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="250" t="e">
+      <c r="I35" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="255" t="e">
+      <c r="J35" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" s="249"/>
+      <c r="K35" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" s="248"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D36" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="253" t="e">
+      <c r="D36" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F36" s="254" t="e">
+      <c r="F36" s="253" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G36" s="254" t="str">
+      <c r="G36" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>--</v>
       </c>
-      <c r="H36" s="250" t="e">
+      <c r="H36" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" s="250" t="e">
+      <c r="I36" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" s="255" t="e">
+      <c r="J36" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K36" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" s="249"/>
+      <c r="K36" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="248"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D37" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="253" t="e">
+      <c r="D37" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" s="254" t="e">
+      <c r="F37" s="253" t="e">
         <f>_xll.qlRateHelperRate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G37" s="254" t="str">
+      <c r="G37" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>--</v>
       </c>
-      <c r="H37" s="250" t="e">
+      <c r="H37" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" s="250" t="e">
+      <c r="I37" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" s="255" t="e">
+      <c r="J37" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K37" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" s="249"/>
+      <c r="K37" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="248"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D38" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="253" t="e">
+      <c r="D38" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="254" t="e">
+      <c r="F38" s="253" t="e">
         <f>_xll.qlRateHelperRate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G38" s="254" t="str">
+      <c r="G38" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>--</v>
       </c>
-      <c r="H38" s="250" t="e">
+      <c r="H38" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="250" t="e">
+      <c r="I38" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J38" s="255" t="e">
+      <c r="J38" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K38" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" s="249"/>
+      <c r="K38" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" s="248"/>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D39" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="253" t="e">
+      <c r="D39" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="254" t="e">
+      <c r="F39" s="253" t="e">
         <f>_xll.qlRateHelperRate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G39" s="254" t="str">
+      <c r="G39" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>--</v>
       </c>
-      <c r="H39" s="250" t="e">
+      <c r="H39" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I39" s="250" t="e">
+      <c r="I39" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J39" s="255" t="e">
+      <c r="J39" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="254" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="249"/>
+      <c r="K39" s="253" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="248"/>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D40" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="253" t="e">
+      <c r="D40" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F40" s="254" t="e">
+      <c r="F40" s="253" t="e">
         <f>_xll.qlRateHelperRate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G40" s="254" t="str">
+      <c r="G40" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>--</v>
       </c>
-      <c r="H40" s="250" t="e">
+      <c r="H40" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="250" t="e">
+      <c r="I40" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J40" s="255" t="e">
+      <c r="J40" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="254" t="e">
+      <c r="K40" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D41" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="253" t="e">
+      <c r="D41" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F41" s="254" t="e">
+      <c r="F41" s="253" t="e">
         <f>_xll.qlRateHelperRate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G41" s="254" t="str">
+      <c r="G41" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>--</v>
       </c>
-      <c r="H41" s="250" t="e">
+      <c r="H41" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I41" s="250" t="e">
+      <c r="I41" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J41" s="255" t="e">
+      <c r="J41" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="254" t="e">
+      <c r="K41" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D42" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="253" t="e">
+      <c r="D42" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F42" s="254" t="e">
+      <c r="F42" s="253" t="e">
         <f>_xll.qlRateHelperRate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G42" s="254" t="str">
+      <c r="G42" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>--</v>
       </c>
-      <c r="H42" s="250" t="e">
+      <c r="H42" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="250" t="e">
+      <c r="I42" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J42" s="255" t="e">
+      <c r="J42" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="254" t="e">
+      <c r="K42" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D43" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="253" t="e">
+      <c r="D43" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F43" s="254" t="e">
+      <c r="F43" s="253" t="e">
         <f>_xll.qlRateHelperRate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G43" s="254" t="str">
+      <c r="G43" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>--</v>
       </c>
-      <c r="H43" s="250" t="e">
+      <c r="H43" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I43" s="250" t="e">
+      <c r="I43" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J43" s="255" t="e">
+      <c r="J43" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K43" s="254" t="e">
+      <c r="K43" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D44" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="253" t="e">
+      <c r="D44" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="254" t="e">
+      <c r="F44" s="253" t="e">
         <f>_xll.qlRateHelperRate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G44" s="254" t="str">
+      <c r="G44" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>--</v>
       </c>
-      <c r="H44" s="250" t="e">
+      <c r="H44" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="250" t="e">
+      <c r="I44" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J44" s="255" t="e">
+      <c r="J44" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="254" t="e">
+      <c r="K44" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D45" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="253" t="e">
+      <c r="D45" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F45" s="254" t="e">
+      <c r="F45" s="253" t="e">
         <f>_xll.qlRateHelperRate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G45" s="254" t="str">
+      <c r="G45" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>--</v>
       </c>
-      <c r="H45" s="250" t="e">
+      <c r="H45" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I45" s="250" t="e">
+      <c r="I45" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J45" s="255" t="e">
+      <c r="J45" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="254" t="e">
+      <c r="K45" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D46" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="253" t="e">
+      <c r="D46" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F46" s="254" t="e">
+      <c r="F46" s="253" t="e">
         <f>_xll.qlRateHelperRate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G46" s="254" t="str">
+      <c r="G46" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>--</v>
       </c>
-      <c r="H46" s="250" t="e">
+      <c r="H46" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I46" s="250" t="e">
+      <c r="I46" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J46" s="255" t="e">
+      <c r="J46" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="254" t="e">
+      <c r="K46" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D47" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="253" t="e">
+      <c r="D47" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F47" s="254" t="e">
+      <c r="F47" s="253" t="e">
         <f>_xll.qlRateHelperRate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G47" s="254" t="str">
+      <c r="G47" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>--</v>
       </c>
-      <c r="H47" s="250" t="e">
+      <c r="H47" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" s="250" t="e">
+      <c r="I47" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J47" s="255" t="e">
+      <c r="J47" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="254" t="e">
+      <c r="K47" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D48" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="253" t="e">
+      <c r="D48" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="254" t="e">
+      <c r="F48" s="253" t="e">
         <f>_xll.qlRateHelperRate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="254" t="str">
+      <c r="G48" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>--</v>
       </c>
-      <c r="H48" s="250" t="e">
+      <c r="H48" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="250" t="e">
+      <c r="I48" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="255" t="e">
+      <c r="J48" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="254" t="e">
+      <c r="K48" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D49" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="253" t="e">
+      <c r="D49" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F49" s="254" t="e">
+      <c r="F49" s="253" t="e">
         <f>_xll.qlRateHelperRate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G49" s="254" t="str">
+      <c r="G49" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>--</v>
       </c>
-      <c r="H49" s="250" t="e">
+      <c r="H49" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" s="250" t="e">
+      <c r="I49" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J49" s="255" t="e">
+      <c r="J49" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K49" s="254" t="e">
+      <c r="K49" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D50" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="253" t="e">
+      <c r="D50" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F50" s="254" t="e">
+      <c r="F50" s="253" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G50" s="254" t="str">
+      <c r="G50" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>--</v>
       </c>
-      <c r="H50" s="250" t="e">
+      <c r="H50" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I50" s="250" t="e">
+      <c r="I50" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J50" s="255" t="e">
+      <c r="J50" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K50" s="254" t="e">
+      <c r="K50" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="253" t="e">
+      <c r="D51" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="254" t="e">
+      <c r="F51" s="253" t="e">
         <f>_xll.qlRateHelperRate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="254" t="str">
+      <c r="G51" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>--</v>
       </c>
-      <c r="H51" s="250" t="e">
+      <c r="H51" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="250" t="e">
+      <c r="I51" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J51" s="255" t="e">
+      <c r="J51" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K51" s="254" t="e">
+      <c r="K51" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="253" t="e">
+      <c r="D52" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="254" t="e">
+      <c r="F52" s="253" t="e">
         <f>_xll.qlRateHelperRate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="254" t="str">
+      <c r="G52" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>--</v>
       </c>
-      <c r="H52" s="250" t="e">
+      <c r="H52" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="250" t="e">
+      <c r="I52" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J52" s="255" t="e">
+      <c r="J52" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K52" s="254" t="e">
+      <c r="K52" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D53" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="253" t="e">
+      <c r="D53" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="254" t="e">
+      <c r="F53" s="253" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="254" t="str">
+      <c r="G53" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>--</v>
       </c>
-      <c r="H53" s="250" t="e">
+      <c r="H53" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="250" t="e">
+      <c r="I53" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J53" s="255" t="e">
+      <c r="J53" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K53" s="254" t="e">
+      <c r="K53" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D54" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="253" t="e">
+      <c r="D54" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="254" t="e">
+      <c r="F54" s="253" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="254" t="str">
+      <c r="G54" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>--</v>
       </c>
-      <c r="H54" s="250" t="e">
+      <c r="H54" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I54" s="250" t="e">
+      <c r="I54" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J54" s="255" t="e">
+      <c r="J54" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K54" s="254" t="e">
+      <c r="K54" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D55" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="253" t="e">
+      <c r="D55" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F55" s="254" t="e">
+      <c r="F55" s="253" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G55" s="254" t="str">
+      <c r="G55" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>--</v>
       </c>
-      <c r="H55" s="250" t="e">
+      <c r="H55" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I55" s="250" t="e">
+      <c r="I55" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J55" s="255" t="e">
+      <c r="J55" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="254" t="e">
+      <c r="K55" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D56" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="253" t="e">
+      <c r="D56" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F56" s="254" t="e">
+      <c r="F56" s="253" t="e">
         <f>_xll.qlRateHelperRate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G56" s="254" t="str">
+      <c r="G56" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>--</v>
       </c>
-      <c r="H56" s="250" t="e">
+      <c r="H56" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="250" t="e">
+      <c r="I56" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J56" s="255" t="e">
+      <c r="J56" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K56" s="254" t="e">
+      <c r="K56" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D57" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="253" t="e">
+      <c r="D57" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F57" s="254" t="e">
+      <c r="F57" s="253" t="e">
         <f>_xll.qlRateHelperRate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G57" s="254" t="str">
+      <c r="G57" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>--</v>
       </c>
-      <c r="H57" s="250" t="e">
+      <c r="H57" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="250" t="e">
+      <c r="I57" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J57" s="255" t="e">
+      <c r="J57" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K57" s="254" t="e">
+      <c r="K57" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D58" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="253" t="e">
+      <c r="D58" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="254" t="e">
+      <c r="F58" s="253" t="e">
         <f>_xll.qlRateHelperRate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="254" t="str">
+      <c r="G58" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>--</v>
       </c>
-      <c r="H58" s="250" t="e">
+      <c r="H58" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="250" t="e">
+      <c r="I58" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="255" t="e">
+      <c r="J58" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="254" t="e">
+      <c r="K58" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D59" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="253" t="e">
+      <c r="D59" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="254" t="e">
+      <c r="F59" s="253" t="e">
         <f>_xll.qlRateHelperRate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="254" t="str">
+      <c r="G59" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>--</v>
       </c>
-      <c r="H59" s="250" t="e">
+      <c r="H59" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="250" t="e">
+      <c r="I59" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="255" t="e">
+      <c r="J59" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="254" t="e">
+      <c r="K59" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D60" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="253" t="e">
+      <c r="D60" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F60" s="254" t="e">
+      <c r="F60" s="253" t="e">
         <f>_xll.qlRateHelperRate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G60" s="254" t="str">
+      <c r="G60" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>--</v>
       </c>
-      <c r="H60" s="250" t="e">
+      <c r="H60" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="250" t="e">
+      <c r="I60" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J60" s="255" t="e">
+      <c r="J60" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K60" s="254" t="e">
+      <c r="K60" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D61" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="253" t="e">
+      <c r="D61" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F61" s="254" t="e">
+      <c r="F61" s="253" t="e">
         <f>_xll.qlRateHelperRate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G61" s="254" t="str">
+      <c r="G61" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>--</v>
       </c>
-      <c r="H61" s="250" t="e">
+      <c r="H61" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="250" t="e">
+      <c r="I61" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J61" s="255" t="e">
+      <c r="J61" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K61" s="254" t="e">
+      <c r="K61" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D62" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="253" t="e">
+      <c r="D62" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F62" s="254" t="e">
+      <c r="F62" s="253" t="e">
         <f>_xll.qlRateHelperRate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G62" s="254" t="str">
+      <c r="G62" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>--</v>
       </c>
-      <c r="H62" s="250" t="e">
+      <c r="H62" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" s="250" t="e">
+      <c r="I62" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J62" s="255" t="e">
+      <c r="J62" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K62" s="254" t="e">
+      <c r="K62" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D63" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="253" t="e">
+      <c r="D63" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F63" s="254" t="e">
+      <c r="F63" s="253" t="e">
         <f>_xll.qlRateHelperRate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G63" s="254" t="str">
+      <c r="G63" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>--</v>
       </c>
-      <c r="H63" s="250" t="e">
+      <c r="H63" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" s="250" t="e">
+      <c r="I63" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J63" s="255" t="e">
+      <c r="J63" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="254" t="e">
+      <c r="K63" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D64" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="253" t="e">
+      <c r="D64" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F64" s="254" t="e">
+      <c r="F64" s="253" t="e">
         <f>_xll.qlRateHelperRate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G64" s="254" t="str">
+      <c r="G64" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>--</v>
       </c>
-      <c r="H64" s="250" t="e">
+      <c r="H64" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" s="250" t="e">
+      <c r="I64" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J64" s="255" t="e">
+      <c r="J64" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K64" s="254" t="e">
+      <c r="K64" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D65" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="253" t="e">
+      <c r="D65" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F65" s="254" t="e">
+      <c r="F65" s="253" t="e">
         <f>_xll.qlRateHelperRate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G65" s="254" t="str">
+      <c r="G65" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>--</v>
       </c>
-      <c r="H65" s="250" t="e">
+      <c r="H65" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I65" s="250" t="e">
+      <c r="I65" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J65" s="255" t="e">
+      <c r="J65" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K65" s="254" t="e">
+      <c r="K65" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D66" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="253" t="e">
+      <c r="D66" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F66" s="254" t="e">
+      <c r="F66" s="253" t="e">
         <f>_xll.qlRateHelperRate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G66" s="254" t="str">
+      <c r="G66" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>--</v>
       </c>
-      <c r="H66" s="250" t="e">
+      <c r="H66" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" s="250" t="e">
+      <c r="I66" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J66" s="255" t="e">
+      <c r="J66" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K66" s="254" t="e">
+      <c r="K66" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D67" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="253" t="e">
+      <c r="D67" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F67" s="254" t="e">
+      <c r="F67" s="253" t="e">
         <f>_xll.qlRateHelperRate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G67" s="254" t="str">
+      <c r="G67" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>--</v>
       </c>
-      <c r="H67" s="250" t="e">
+      <c r="H67" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="250" t="e">
+      <c r="I67" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J67" s="255" t="e">
+      <c r="J67" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K67" s="254" t="e">
+      <c r="K67" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D68" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="253" t="e">
+      <c r="D68" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F68" s="254" t="e">
+      <c r="F68" s="253" t="e">
         <f>_xll.qlRateHelperRate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G68" s="254" t="str">
+      <c r="G68" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>--</v>
       </c>
-      <c r="H68" s="250" t="e">
+      <c r="H68" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I68" s="250" t="e">
+      <c r="I68" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J68" s="255" t="e">
+      <c r="J68" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K68" s="254" t="e">
+      <c r="K68" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D69" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="253" t="e">
+      <c r="D69" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F69" s="254" t="e">
+      <c r="F69" s="253" t="e">
         <f>_xll.qlRateHelperRate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G69" s="254" t="str">
+      <c r="G69" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>--</v>
       </c>
-      <c r="H69" s="250" t="e">
+      <c r="H69" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" s="250" t="e">
+      <c r="I69" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J69" s="255" t="e">
+      <c r="J69" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K69" s="254" t="e">
+      <c r="K69" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D70" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="253" t="e">
+      <c r="D70" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F70" s="254" t="e">
+      <c r="F70" s="253" t="e">
         <f>_xll.qlRateHelperRate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G70" s="254" t="str">
+      <c r="G70" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>--</v>
       </c>
-      <c r="H70" s="250" t="e">
+      <c r="H70" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" s="250" t="e">
+      <c r="I70" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J70" s="255" t="e">
+      <c r="J70" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K70" s="254" t="e">
+      <c r="K70" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D71" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="253" t="e">
+      <c r="D71" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F71" s="254" t="e">
+      <c r="F71" s="253" t="e">
         <f>_xll.qlRateHelperRate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G71" s="254" t="str">
+      <c r="G71" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>--</v>
       </c>
-      <c r="H71" s="250" t="e">
+      <c r="H71" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" s="250" t="e">
+      <c r="I71" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J71" s="255" t="e">
+      <c r="J71" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K71" s="254" t="e">
+      <c r="K71" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D72" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="253" t="e">
+      <c r="D72" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F72" s="254" t="e">
+      <c r="F72" s="253" t="e">
         <f>_xll.qlRateHelperRate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G72" s="254" t="str">
+      <c r="G72" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>--</v>
       </c>
-      <c r="H72" s="250" t="e">
+      <c r="H72" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" s="250" t="e">
+      <c r="I72" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J72" s="255" t="e">
+      <c r="J72" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K72" s="254" t="e">
+      <c r="K72" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D73" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="253" t="e">
+      <c r="D73" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F73" s="254" t="e">
+      <c r="F73" s="253" t="e">
         <f>_xll.qlRateHelperRate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G73" s="254" t="str">
+      <c r="G73" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>--</v>
       </c>
-      <c r="H73" s="250" t="e">
+      <c r="H73" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" s="250" t="e">
+      <c r="I73" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J73" s="255" t="e">
+      <c r="J73" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K73" s="254" t="e">
+      <c r="K73" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D74" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="253" t="e">
+      <c r="D74" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" s="254" t="e">
+      <c r="F74" s="253" t="e">
         <f>_xll.qlRateHelperRate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G74" s="254" t="str">
+      <c r="G74" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>--</v>
       </c>
-      <c r="H74" s="250" t="e">
+      <c r="H74" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I74" s="250" t="e">
+      <c r="I74" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J74" s="255" t="e">
+      <c r="J74" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K74" s="254" t="e">
+      <c r="K74" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D75" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="253" t="e">
+      <c r="D75" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" s="254" t="e">
+      <c r="F75" s="253" t="e">
         <f>_xll.qlRateHelperRate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G75" s="254" t="str">
+      <c r="G75" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>--</v>
       </c>
-      <c r="H75" s="250" t="e">
+      <c r="H75" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" s="250" t="e">
+      <c r="I75" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J75" s="255" t="e">
+      <c r="J75" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K75" s="254" t="e">
+      <c r="K75" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D76" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="253" t="e">
+      <c r="D76" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F76" s="254" t="e">
+      <c r="F76" s="253" t="e">
         <f>_xll.qlRateHelperRate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G76" s="254" t="str">
+      <c r="G76" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>--</v>
       </c>
-      <c r="H76" s="250" t="e">
+      <c r="H76" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" s="250" t="e">
+      <c r="I76" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J76" s="255" t="e">
+      <c r="J76" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K76" s="254" t="e">
+      <c r="K76" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D77" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="253" t="e">
+      <c r="D77" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F77" s="254" t="e">
+      <c r="F77" s="253" t="e">
         <f>_xll.qlRateHelperRate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G77" s="254" t="str">
+      <c r="G77" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>--</v>
       </c>
-      <c r="H77" s="250" t="e">
+      <c r="H77" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" s="250" t="e">
+      <c r="I77" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J77" s="255" t="e">
+      <c r="J77" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K77" s="254" t="e">
+      <c r="K77" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D78" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="253" t="e">
+      <c r="D78" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F78" s="254" t="e">
+      <c r="F78" s="253" t="e">
         <f>_xll.qlRateHelperRate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G78" s="254" t="str">
+      <c r="G78" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>--</v>
       </c>
-      <c r="H78" s="250" t="e">
+      <c r="H78" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="250" t="e">
+      <c r="I78" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J78" s="255" t="e">
+      <c r="J78" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K78" s="254" t="e">
+      <c r="K78" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D79" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="253" t="e">
+      <c r="D79" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F79" s="254" t="e">
+      <c r="F79" s="253" t="e">
         <f>_xll.qlRateHelperRate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G79" s="254" t="str">
+      <c r="G79" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>--</v>
       </c>
-      <c r="H79" s="250" t="e">
+      <c r="H79" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="250" t="e">
+      <c r="I79" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J79" s="255" t="e">
+      <c r="J79" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K79" s="254" t="e">
+      <c r="K79" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D80" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="253" t="e">
+      <c r="D80" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="254" t="e">
+      <c r="F80" s="253" t="e">
         <f>_xll.qlRateHelperRate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G80" s="254" t="str">
+      <c r="G80" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>--</v>
       </c>
-      <c r="H80" s="250" t="e">
+      <c r="H80" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="250" t="e">
+      <c r="I80" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J80" s="255" t="e">
+      <c r="J80" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K80" s="254" t="e">
+      <c r="K80" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D81" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="253" t="e">
+      <c r="D81" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F81" s="254" t="e">
+      <c r="F81" s="253" t="e">
         <f>_xll.qlRateHelperRate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G81" s="254" t="str">
+      <c r="G81" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>--</v>
       </c>
-      <c r="H81" s="250" t="e">
+      <c r="H81" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I81" s="250" t="e">
+      <c r="I81" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J81" s="255" t="e">
+      <c r="J81" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K81" s="254" t="e">
+      <c r="K81" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D82" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="253" t="e">
+      <c r="D82" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F82" s="254" t="e">
+      <c r="F82" s="253" t="e">
         <f>_xll.qlRateHelperRate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G82" s="254" t="str">
+      <c r="G82" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>--</v>
       </c>
-      <c r="H82" s="250" t="e">
+      <c r="H82" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="250" t="e">
+      <c r="I82" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J82" s="255" t="e">
+      <c r="J82" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K82" s="254" t="e">
+      <c r="K82" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D83" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="253" t="e">
+      <c r="D83" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F83" s="254" t="e">
+      <c r="F83" s="253" t="e">
         <f>_xll.qlRateHelperRate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G83" s="254" t="str">
+      <c r="G83" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>--</v>
       </c>
-      <c r="H83" s="250" t="e">
+      <c r="H83" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="250" t="e">
+      <c r="I83" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J83" s="255" t="e">
+      <c r="J83" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K83" s="254" t="e">
+      <c r="K83" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D84" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="253" t="e">
+      <c r="D84" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F84" s="254" t="e">
+      <c r="F84" s="253" t="e">
         <f>_xll.qlRateHelperRate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G84" s="254" t="str">
+      <c r="G84" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>--</v>
       </c>
-      <c r="H84" s="250" t="e">
+      <c r="H84" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="250" t="e">
+      <c r="I84" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J84" s="255" t="e">
+      <c r="J84" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K84" s="254" t="e">
+      <c r="K84" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D85" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="253" t="e">
+      <c r="D85" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F85" s="254" t="e">
+      <c r="F85" s="253" t="e">
         <f>_xll.qlRateHelperRate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G85" s="254" t="str">
+      <c r="G85" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>--</v>
       </c>
-      <c r="H85" s="250" t="e">
+      <c r="H85" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="250" t="e">
+      <c r="I85" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J85" s="255" t="e">
+      <c r="J85" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K85" s="254" t="e">
+      <c r="K85" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D86" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="253" t="e">
+      <c r="D86" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F86" s="254" t="e">
+      <c r="F86" s="253" t="e">
         <f>_xll.qlRateHelperRate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G86" s="254" t="str">
+      <c r="G86" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>--</v>
       </c>
-      <c r="H86" s="250" t="e">
+      <c r="H86" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="250" t="e">
+      <c r="I86" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J86" s="255" t="e">
+      <c r="J86" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K86" s="254" t="e">
+      <c r="K86" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D87" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="253" t="e">
+      <c r="D87" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F87" s="254" t="e">
+      <c r="F87" s="253" t="e">
         <f>_xll.qlRateHelperRate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G87" s="254" t="str">
+      <c r="G87" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>--</v>
       </c>
-      <c r="H87" s="250" t="e">
+      <c r="H87" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="250" t="e">
+      <c r="I87" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J87" s="255" t="e">
+      <c r="J87" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K87" s="254" t="e">
+      <c r="K87" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D88" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="253" t="e">
+      <c r="D88" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F88" s="254" t="e">
+      <c r="F88" s="253" t="e">
         <f>_xll.qlRateHelperRate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G88" s="254" t="str">
+      <c r="G88" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>--</v>
       </c>
-      <c r="H88" s="250" t="e">
+      <c r="H88" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I88" s="250" t="e">
+      <c r="I88" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J88" s="255" t="e">
+      <c r="J88" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K88" s="254" t="e">
+      <c r="K88" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D89" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="253" t="e">
+      <c r="D89" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F89" s="254" t="e">
+      <c r="F89" s="253" t="e">
         <f>_xll.qlRateHelperRate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G89" s="254" t="str">
+      <c r="G89" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>--</v>
       </c>
-      <c r="H89" s="250" t="e">
+      <c r="H89" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I89" s="250" t="e">
+      <c r="I89" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J89" s="255" t="e">
+      <c r="J89" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K89" s="254" t="e">
+      <c r="K89" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D90" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="253" t="e">
+      <c r="D90" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F90" s="254" t="e">
+      <c r="F90" s="253" t="e">
         <f>_xll.qlRateHelperRate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G90" s="254" t="str">
+      <c r="G90" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>--</v>
       </c>
-      <c r="H90" s="250" t="e">
+      <c r="H90" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I90" s="250" t="e">
+      <c r="I90" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J90" s="255" t="e">
+      <c r="J90" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K90" s="254" t="e">
+      <c r="K90" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D91" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="253" t="e">
+      <c r="D91" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F91" s="254" t="e">
+      <c r="F91" s="253" t="e">
         <f>_xll.qlRateHelperRate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G91" s="254" t="str">
+      <c r="G91" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>--</v>
       </c>
-      <c r="H91" s="250" t="e">
+      <c r="H91" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I91" s="250" t="e">
+      <c r="I91" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J91" s="255" t="e">
+      <c r="J91" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K91" s="254" t="e">
+      <c r="K91" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D92" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="253" t="e">
+      <c r="D92" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E92" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F92" s="254" t="e">
+      <c r="F92" s="253" t="e">
         <f>_xll.qlRateHelperRate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G92" s="254" t="str">
+      <c r="G92" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>--</v>
       </c>
-      <c r="H92" s="250" t="e">
+      <c r="H92" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I92" s="250" t="e">
+      <c r="I92" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J92" s="255" t="e">
+      <c r="J92" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K92" s="254" t="e">
+      <c r="K92" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D93" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="253" t="e">
+      <c r="D93" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F93" s="254" t="e">
+      <c r="F93" s="253" t="e">
         <f>_xll.qlRateHelperRate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G93" s="254" t="str">
+      <c r="G93" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>--</v>
       </c>
-      <c r="H93" s="250" t="e">
+      <c r="H93" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I93" s="250" t="e">
+      <c r="I93" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J93" s="255" t="e">
+      <c r="J93" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K93" s="254" t="e">
+      <c r="K93" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D94" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="253" t="e">
+      <c r="D94" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E94" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F94" s="254" t="e">
+      <c r="F94" s="253" t="e">
         <f>_xll.qlRateHelperRate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G94" s="254" t="str">
+      <c r="G94" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>--</v>
       </c>
-      <c r="H94" s="250" t="e">
+      <c r="H94" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I94" s="250" t="e">
+      <c r="I94" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J94" s="255" t="e">
+      <c r="J94" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K94" s="254" t="e">
+      <c r="K94" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D95" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="253" t="e">
+      <c r="D95" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F95" s="254" t="e">
+      <c r="F95" s="253" t="e">
         <f>_xll.qlRateHelperRate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G95" s="254" t="str">
+      <c r="G95" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>--</v>
       </c>
-      <c r="H95" s="250" t="e">
+      <c r="H95" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I95" s="250" t="e">
+      <c r="I95" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J95" s="255" t="e">
+      <c r="J95" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K95" s="254" t="e">
+      <c r="K95" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D96" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="253" t="e">
+      <c r="D96" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E96" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F96" s="254" t="e">
+      <c r="F96" s="253" t="e">
         <f>_xll.qlRateHelperRate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G96" s="254" t="str">
+      <c r="G96" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>--</v>
       </c>
-      <c r="H96" s="250" t="e">
+      <c r="H96" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I96" s="250" t="e">
+      <c r="I96" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J96" s="255" t="e">
+      <c r="J96" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K96" s="254" t="e">
+      <c r="K96" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D97" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="253" t="e">
+      <c r="D97" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F97" s="254" t="e">
+      <c r="F97" s="253" t="e">
         <f>_xll.qlRateHelperRate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G97" s="254" t="str">
+      <c r="G97" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>--</v>
       </c>
-      <c r="H97" s="250" t="e">
+      <c r="H97" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I97" s="250" t="e">
+      <c r="I97" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J97" s="255" t="e">
+      <c r="J97" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K97" s="254" t="e">
+      <c r="K97" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D98" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="253" t="e">
+      <c r="D98" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F98" s="254" t="e">
+      <c r="F98" s="253" t="e">
         <f>_xll.qlRateHelperRate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G98" s="254" t="str">
+      <c r="G98" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>--</v>
       </c>
-      <c r="H98" s="250" t="e">
+      <c r="H98" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I98" s="250" t="e">
+      <c r="I98" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J98" s="255" t="e">
+      <c r="J98" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K98" s="254" t="e">
+      <c r="K98" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D99" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="253" t="e">
+      <c r="D99" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F99" s="254" t="e">
+      <c r="F99" s="253" t="e">
         <f>_xll.qlRateHelperRate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G99" s="254" t="str">
+      <c r="G99" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>--</v>
       </c>
-      <c r="H99" s="250" t="e">
+      <c r="H99" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I99" s="250" t="e">
+      <c r="I99" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J99" s="255" t="e">
+      <c r="J99" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K99" s="254" t="e">
+      <c r="K99" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D100" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="253" t="e">
+      <c r="D100" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F100" s="254" t="e">
+      <c r="F100" s="253" t="e">
         <f>_xll.qlRateHelperRate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G100" s="254" t="str">
+      <c r="G100" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>--</v>
       </c>
-      <c r="H100" s="250" t="e">
+      <c r="H100" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I100" s="250" t="e">
+      <c r="I100" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J100" s="255" t="e">
+      <c r="J100" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K100" s="254" t="e">
+      <c r="K100" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D101" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="253" t="e">
+      <c r="D101" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E101" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F101" s="254" t="e">
+      <c r="F101" s="253" t="e">
         <f>_xll.qlRateHelperRate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G101" s="254" t="str">
+      <c r="G101" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>--</v>
       </c>
-      <c r="H101" s="250" t="e">
+      <c r="H101" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I101" s="250" t="e">
+      <c r="I101" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J101" s="255" t="e">
+      <c r="J101" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K101" s="254" t="e">
+      <c r="K101" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D102" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="253" t="e">
+      <c r="D102" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F102" s="254" t="e">
+      <c r="F102" s="253" t="e">
         <f>_xll.qlRateHelperRate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G102" s="254" t="str">
+      <c r="G102" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>--</v>
       </c>
-      <c r="H102" s="250" t="e">
+      <c r="H102" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I102" s="250" t="e">
+      <c r="I102" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J102" s="255" t="e">
+      <c r="J102" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K102" s="254" t="e">
+      <c r="K102" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D103" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="253" t="e">
+      <c r="D103" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F103" s="254" t="e">
+      <c r="F103" s="253" t="e">
         <f>_xll.qlRateHelperRate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G103" s="254" t="str">
+      <c r="G103" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>--</v>
       </c>
-      <c r="H103" s="250" t="e">
+      <c r="H103" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I103" s="250" t="e">
+      <c r="I103" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J103" s="255" t="e">
+      <c r="J103" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K103" s="254" t="e">
+      <c r="K103" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D104" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="253" t="e">
+      <c r="D104" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E104" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F104" s="254" t="e">
+      <c r="F104" s="253" t="e">
         <f>_xll.qlRateHelperRate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G104" s="254" t="str">
+      <c r="G104" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>--</v>
       </c>
-      <c r="H104" s="250" t="e">
+      <c r="H104" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I104" s="250" t="e">
+      <c r="I104" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J104" s="255" t="e">
+      <c r="J104" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K104" s="254" t="e">
+      <c r="K104" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D105" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="253" t="e">
+      <c r="D105" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E105" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="254" t="e">
+      <c r="F105" s="253" t="e">
         <f>_xll.qlRateHelperRate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="254" t="str">
+      <c r="G105" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>--</v>
       </c>
-      <c r="H105" s="250" t="e">
+      <c r="H105" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I105" s="250" t="e">
+      <c r="I105" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J105" s="255" t="e">
+      <c r="J105" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K105" s="254" t="e">
+      <c r="K105" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D106" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="253" t="e">
+      <c r="D106" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F106" s="254" t="e">
+      <c r="F106" s="253" t="e">
         <f>_xll.qlRateHelperRate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G106" s="254" t="str">
+      <c r="G106" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>--</v>
       </c>
-      <c r="H106" s="250" t="e">
+      <c r="H106" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="250" t="e">
+      <c r="I106" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J106" s="255" t="e">
+      <c r="J106" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K106" s="254" t="e">
+      <c r="K106" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D107" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E107" s="253" t="e">
+      <c r="D107" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E107" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F107" s="254" t="e">
+      <c r="F107" s="253" t="e">
         <f>_xll.qlRateHelperRate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G107" s="254" t="str">
+      <c r="G107" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>--</v>
       </c>
-      <c r="H107" s="250" t="e">
+      <c r="H107" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I107" s="250" t="e">
+      <c r="I107" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J107" s="255" t="e">
+      <c r="J107" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K107" s="254" t="e">
+      <c r="K107" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D108" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="253" t="e">
+      <c r="D108" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E108" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F108" s="254" t="e">
+      <c r="F108" s="253" t="e">
         <f>_xll.qlRateHelperRate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G108" s="254" t="str">
+      <c r="G108" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>--</v>
       </c>
-      <c r="H108" s="250" t="e">
+      <c r="H108" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I108" s="250" t="e">
+      <c r="I108" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J108" s="255" t="e">
+      <c r="J108" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K108" s="254" t="e">
+      <c r="K108" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D109" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="253" t="e">
+      <c r="D109" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E109" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F109" s="254" t="e">
+      <c r="F109" s="253" t="e">
         <f>_xll.qlRateHelperRate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G109" s="254" t="str">
+      <c r="G109" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>--</v>
       </c>
-      <c r="H109" s="250" t="e">
+      <c r="H109" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I109" s="250" t="e">
+      <c r="I109" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J109" s="255" t="e">
+      <c r="J109" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K109" s="254" t="e">
+      <c r="K109" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D110" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="253" t="e">
+      <c r="D110" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E110" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F110" s="254" t="e">
+      <c r="F110" s="253" t="e">
         <f>_xll.qlRateHelperRate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G110" s="254" t="str">
+      <c r="G110" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>--</v>
       </c>
-      <c r="H110" s="250" t="e">
+      <c r="H110" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I110" s="250" t="e">
+      <c r="I110" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J110" s="255" t="e">
+      <c r="J110" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K110" s="254" t="e">
+      <c r="K110" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D111" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="253" t="e">
+      <c r="D111" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F111" s="254" t="e">
+      <c r="F111" s="253" t="e">
         <f>_xll.qlRateHelperRate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G111" s="254" t="str">
+      <c r="G111" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>--</v>
       </c>
-      <c r="H111" s="250" t="e">
+      <c r="H111" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I111" s="250" t="e">
+      <c r="I111" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J111" s="255" t="e">
+      <c r="J111" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K111" s="254" t="e">
+      <c r="K111" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D112" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="253" t="e">
+      <c r="D112" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E112" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F112" s="254" t="e">
+      <c r="F112" s="253" t="e">
         <f>_xll.qlRateHelperRate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G112" s="254" t="str">
+      <c r="G112" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>--</v>
       </c>
-      <c r="H112" s="250" t="e">
+      <c r="H112" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I112" s="250" t="e">
+      <c r="I112" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J112" s="255" t="e">
+      <c r="J112" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K112" s="254" t="e">
+      <c r="K112" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D113" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="253" t="e">
+      <c r="D113" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E113" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F113" s="254" t="e">
+      <c r="F113" s="253" t="e">
         <f>_xll.qlRateHelperRate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G113" s="254" t="str">
+      <c r="G113" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>--</v>
       </c>
-      <c r="H113" s="250" t="e">
+      <c r="H113" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I113" s="250" t="e">
+      <c r="I113" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J113" s="255" t="e">
+      <c r="J113" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K113" s="254" t="e">
+      <c r="K113" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D114" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="253" t="e">
+      <c r="D114" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F114" s="254" t="e">
+      <c r="F114" s="253" t="e">
         <f>_xll.qlRateHelperRate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G114" s="254" t="str">
+      <c r="G114" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>--</v>
       </c>
-      <c r="H114" s="250" t="e">
+      <c r="H114" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I114" s="250" t="e">
+      <c r="I114" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J114" s="255" t="e">
+      <c r="J114" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K114" s="254" t="e">
+      <c r="K114" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D115" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="253" t="e">
+      <c r="D115" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F115" s="254" t="e">
+      <c r="F115" s="253" t="e">
         <f>_xll.qlRateHelperRate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G115" s="254" t="str">
+      <c r="G115" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>--</v>
       </c>
-      <c r="H115" s="250" t="e">
+      <c r="H115" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I115" s="250" t="e">
+      <c r="I115" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J115" s="255" t="e">
+      <c r="J115" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K115" s="254" t="e">
+      <c r="K115" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D116" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E116" s="253" t="e">
+      <c r="D116" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E116" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F116" s="254" t="e">
+      <c r="F116" s="253" t="e">
         <f>_xll.qlRateHelperRate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G116" s="254" t="str">
+      <c r="G116" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>--</v>
       </c>
-      <c r="H116" s="250" t="e">
+      <c r="H116" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I116" s="250" t="e">
+      <c r="I116" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J116" s="255" t="e">
+      <c r="J116" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K116" s="254" t="e">
+      <c r="K116" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D117" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="253" t="e">
+      <c r="D117" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E117" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F117" s="254" t="e">
+      <c r="F117" s="253" t="e">
         <f>_xll.qlRateHelperRate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G117" s="254" t="str">
+      <c r="G117" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>--</v>
       </c>
-      <c r="H117" s="250" t="e">
+      <c r="H117" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I117" s="250" t="e">
+      <c r="I117" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J117" s="255" t="e">
+      <c r="J117" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K117" s="254" t="e">
+      <c r="K117" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D118" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="253" t="e">
+      <c r="D118" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E118" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F118" s="254" t="e">
+      <c r="F118" s="253" t="e">
         <f>_xll.qlRateHelperRate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G118" s="254" t="str">
+      <c r="G118" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>--</v>
       </c>
-      <c r="H118" s="250" t="e">
+      <c r="H118" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I118" s="250" t="e">
+      <c r="I118" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J118" s="255" t="e">
+      <c r="J118" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K118" s="254" t="e">
+      <c r="K118" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D119" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="253" t="e">
+      <c r="D119" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F119" s="254" t="e">
+      <c r="F119" s="253" t="e">
         <f>_xll.qlRateHelperRate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G119" s="254" t="str">
+      <c r="G119" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>--</v>
       </c>
-      <c r="H119" s="250" t="e">
+      <c r="H119" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I119" s="250" t="e">
+      <c r="I119" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J119" s="255" t="e">
+      <c r="J119" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K119" s="254" t="e">
+      <c r="K119" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D120" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="253" t="e">
+      <c r="D120" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F120" s="254" t="e">
+      <c r="F120" s="253" t="e">
         <f>_xll.qlRateHelperRate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G120" s="254" t="str">
+      <c r="G120" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>--</v>
       </c>
-      <c r="H120" s="250" t="e">
+      <c r="H120" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I120" s="250" t="e">
+      <c r="I120" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J120" s="255" t="e">
+      <c r="J120" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K120" s="254" t="e">
+      <c r="K120" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D121" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="253" t="e">
+      <c r="D121" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E121" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F121" s="254" t="e">
+      <c r="F121" s="253" t="e">
         <f>_xll.qlRateHelperRate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G121" s="254" t="str">
+      <c r="G121" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>--</v>
       </c>
-      <c r="H121" s="250" t="e">
+      <c r="H121" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I121" s="250" t="e">
+      <c r="I121" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J121" s="255" t="e">
+      <c r="J121" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K121" s="254" t="e">
+      <c r="K121" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D122" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="253" t="e">
+      <c r="D122" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E122" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F122" s="254" t="e">
+      <c r="F122" s="253" t="e">
         <f>_xll.qlRateHelperRate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G122" s="254" t="str">
+      <c r="G122" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>--</v>
       </c>
-      <c r="H122" s="250" t="e">
+      <c r="H122" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I122" s="250" t="e">
+      <c r="I122" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J122" s="255" t="e">
+      <c r="J122" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K122" s="254" t="e">
+      <c r="K122" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D123" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="253" t="e">
+      <c r="D123" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E123" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F123" s="254" t="e">
+      <c r="F123" s="253" t="e">
         <f>_xll.qlRateHelperRate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G123" s="254" t="str">
+      <c r="G123" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>--</v>
       </c>
-      <c r="H123" s="250" t="e">
+      <c r="H123" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I123" s="250" t="e">
+      <c r="I123" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J123" s="255" t="e">
+      <c r="J123" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K123" s="254" t="e">
+      <c r="K123" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D124" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="253" t="e">
+      <c r="D124" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E124" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F124" s="254" t="e">
+      <c r="F124" s="253" t="e">
         <f>_xll.qlRateHelperRate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G124" s="254" t="str">
+      <c r="G124" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>--</v>
       </c>
-      <c r="H124" s="250" t="e">
+      <c r="H124" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I124" s="250" t="e">
+      <c r="I124" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J124" s="255" t="e">
+      <c r="J124" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K124" s="254" t="e">
+      <c r="K124" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D125" s="253" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="253" t="e">
+      <c r="D125" s="252" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E125" s="252" t="e">
         <f>_xll.qlRateHelperQuoteName(D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F125" s="254" t="e">
+      <c r="F125" s="253" t="e">
         <f>_xll.qlRateHelperRate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G125" s="254" t="str">
+      <c r="G125" s="253" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>--</v>
       </c>
-      <c r="H125" s="250" t="e">
+      <c r="H125" s="249" t="e">
         <f>_xll.qlRateHelperEarliestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I125" s="250" t="e">
+      <c r="I125" s="249" t="e">
         <f>_xll.qlRateHelperMaturityDate(D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J125" s="255" t="e">
+      <c r="J125" s="254" t="e">
         <f>_xll.qlRateHelperPillarDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K125" s="254" t="e">
+      <c r="K125" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="256" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="256" t="e">
+      <c r="D126" s="255" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="255" t="e">
         <f>_xll.qlRateHelperQuoteName(D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F126" s="257" t="e">
+      <c r="F126" s="256" t="e">
         <f>_xll.qlRateHelperRate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G126" s="257" t="str">
+      <c r="G126" s="256" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>--</v>
       </c>
-      <c r="H126" s="258" t="e">
+      <c r="H126" s="257" t="e">
         <f>_xll.qlRateHelperEarliestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I126" s="258" t="e">
+      <c r="I126" s="257" t="e">
         <f>_xll.qlRateHelperMaturityDate(D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J126" s="259" t="e">
+      <c r="J126" s="258" t="e">
         <f>_xll.qlRateHelperPillarDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K126" s="254" t="e">
+      <c r="K126" s="253" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -8420,7 +8415,7 @@
       <c r="D2" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="264" t="s">
+      <c r="E2" s="263" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="162" t="str">
@@ -8438,7 +8433,7 @@
       <c r="B3" s="163"/>
       <c r="C3" s="163"/>
       <c r="D3" s="163"/>
-      <c r="E3" s="263" t="b">
+      <c r="E3" s="262" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="149"/>
@@ -8463,7 +8458,7 @@
       </c>
       <c r="F4" s="112" t="str">
         <f>_xll.qlDepositRateHelper(,IF($E$3,E4,D4),C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b2#0000</v>
+        <v>obj_003b4#0001</v>
       </c>
       <c r="G4" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -8490,7 +8485,7 @@
       </c>
       <c r="F5" s="116" t="str">
         <f>_xll.qlDepositRateHelper(,IF($E$3,E5,D5),C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b3#0000</v>
+        <v>obj_003b5#0001</v>
       </c>
       <c r="G5" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -8518,7 +8513,7 @@
       </c>
       <c r="F6" s="116" t="str">
         <f>_xll.qlDepositRateHelper(,IF($E$3,E6,D6),C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b5#0000</v>
+        <v>obj_003b7#0001</v>
       </c>
       <c r="G6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -8546,7 +8541,7 @@
       </c>
       <c r="F7" s="119" t="str">
         <f>_xll.qlDepositRateHelper(,IF($E$3,E7,D7),C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b4#0000</v>
+        <v>obj_003b6#0001</v>
       </c>
       <c r="G7" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8602,7 +8597,7 @@
     <col min="8" max="8" width="13.140625" style="157" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="157" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" style="157" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="185" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="184" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="157" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="157" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="157" customWidth="1"/>
@@ -8613,10 +8608,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150"/>
-      <c r="B1" s="181"/>
+      <c r="B1" s="180"/>
       <c r="C1" s="155"/>
       <c r="D1" s="155"/>
-      <c r="E1" s="181"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="152" t="s">
         <v>55</v>
       </c>
@@ -8624,35 +8619,35 @@
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>GBP_YCSTDRH</v>
       </c>
-      <c r="H1" s="182"/>
+      <c r="H1" s="181"/>
       <c r="I1" s="154" t="str">
         <f>$G$1&amp;"_Futures"&amp;$F$1&amp;".xml"</f>
         <v>GBP_YCSTDRH_Futures3M.xml</v>
       </c>
       <c r="J1" s="151"/>
-      <c r="K1" s="183"/>
+      <c r="K1" s="182"/>
       <c r="L1" s="155"/>
       <c r="M1" s="155"/>
       <c r="N1" s="156"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="173" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="174" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="147" t="s">
@@ -8664,14 +8659,14 @@
       <c r="J2" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="175" t="s">
+      <c r="K2" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="176" t="str">
+      <c r="L2" s="175" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L11,SerializationPath&amp;I1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="M2" s="177" t="str">
+      <c r="M2" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(L2)</f>
         <v/>
       </c>
@@ -8679,24 +8674,21 @@
     </row>
     <row r="3" spans="1:19" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="263" t="b">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="262" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="169" t="str">
-        <f>_xll.qlLibor(,Currency,"3M",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b1#0000</v>
-      </c>
-      <c r="M3" s="177"/>
-      <c r="N3" s="184"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="183"/>
     </row>
     <row r="4" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
@@ -8728,7 +8720,7 @@
         <f t="shared" ref="I4:I11" si="1">Currency&amp;"FUT"&amp;$F$1&amp;$E4&amp;QuoteSuffix</f>
         <v>GBPFUT3MU5_Quote</v>
       </c>
-      <c r="J4" s="171" t="str">
+      <c r="J4" s="170" t="str">
         <f t="shared" ref="J4:J11" si="2">Currency&amp;"FUT3M"&amp;E4&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>GBPFUT3MU5ConvAdj_Quote</v>
       </c>
@@ -8736,17 +8728,17 @@
         <f t="shared" ref="K4:K11" si="3">"FSS"&amp;$E4&amp;LCHQuoteSuffix</f>
         <v>FSSU5_LCHQuote</v>
       </c>
-      <c r="L4" s="170" t="str">
+      <c r="L4" s="169" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K4,I4),C4,F4,,G4,IF($K$3,0,J4),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c6#0000</v>
-      </c>
-      <c r="M4" s="178" t="str">
+        <v>obj_003bf#0001</v>
+      </c>
+      <c r="M4" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="161"/>
-      <c r="S4" s="186"/>
+      <c r="S4" s="185"/>
     </row>
     <row r="5" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
@@ -8777,7 +8769,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ5_Quote</v>
       </c>
-      <c r="J5" s="172" t="str">
+      <c r="J5" s="171" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MZ5ConvAdj_Quote</v>
       </c>
@@ -8787,15 +8779,15 @@
       </c>
       <c r="L5" s="139" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K5,I5),C5,F5,,G5,IF($K$3,0,J5),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c4#0000</v>
-      </c>
-      <c r="M5" s="179" t="str">
+        <v>obj_003bd#0001</v>
+      </c>
+      <c r="M5" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
         <v/>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="161"/>
-      <c r="S5" s="186"/>
+      <c r="S5" s="185"/>
     </row>
     <row r="6" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
@@ -8826,7 +8818,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH6_Quote</v>
       </c>
-      <c r="J6" s="172" t="str">
+      <c r="J6" s="171" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MH6ConvAdj_Quote</v>
       </c>
@@ -8836,9 +8828,9 @@
       </c>
       <c r="L6" s="139" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K6,I6),C6,F6,,G6,IF($K$3,0,J6),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ba#0000</v>
-      </c>
-      <c r="M6" s="179" t="str">
+        <v>obj_003ba#0001</v>
+      </c>
+      <c r="M6" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
@@ -8874,7 +8866,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM6_Quote</v>
       </c>
-      <c r="J7" s="172" t="str">
+      <c r="J7" s="171" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MM6ConvAdj_Quote</v>
       </c>
@@ -8884,9 +8876,9 @@
       </c>
       <c r="L7" s="139" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K7,I7),C7,F7,,G7,IF($K$3,0,J7),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c8#0000</v>
-      </c>
-      <c r="M7" s="179" t="str">
+        <v>obj_003bb#0001</v>
+      </c>
+      <c r="M7" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
@@ -8922,7 +8914,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU6_Quote</v>
       </c>
-      <c r="J8" s="172" t="str">
+      <c r="J8" s="171" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MU6ConvAdj_Quote</v>
       </c>
@@ -8932,9 +8924,9 @@
       </c>
       <c r="L8" s="139" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K8,I8),C8,F8,,G8,IF($K$3,0,J8),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bd#0000</v>
-      </c>
-      <c r="M8" s="179" t="str">
+        <v>obj_003bc#0001</v>
+      </c>
+      <c r="M8" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
@@ -8970,7 +8962,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ6_Quote</v>
       </c>
-      <c r="J9" s="172" t="str">
+      <c r="J9" s="171" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MZ6ConvAdj_Quote</v>
       </c>
@@ -8980,9 +8972,9 @@
       </c>
       <c r="L9" s="139" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K9,I9),C9,F9,,G9,IF($K$3,0,J9),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cb#0000</v>
-      </c>
-      <c r="M9" s="179" t="str">
+        <v>obj_003be#0001</v>
+      </c>
+      <c r="M9" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
@@ -9018,7 +9010,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH7_Quote</v>
       </c>
-      <c r="J10" s="172" t="str">
+      <c r="J10" s="171" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MH7ConvAdj_Quote</v>
       </c>
@@ -9028,9 +9020,9 @@
       </c>
       <c r="L10" s="139" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K10,I10),C10,F10,,G10,IF($K$3,0,J10),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b9#0000</v>
-      </c>
-      <c r="M10" s="179" t="str">
+        <v>obj_003b9#0001</v>
+      </c>
+      <c r="M10" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
@@ -9066,7 +9058,7 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM7_Quote</v>
       </c>
-      <c r="J11" s="173" t="str">
+      <c r="J11" s="172" t="str">
         <f t="shared" si="2"/>
         <v>GBPFUT3MM7ConvAdj_Quote</v>
       </c>
@@ -9076,9 +9068,9 @@
       </c>
       <c r="L11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper3(,IF($K$3,K11,I11),C11,F11,,G11,IF($K$3,0,J11),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b8#0000</v>
-      </c>
-      <c r="M11" s="180" t="str">
+        <v>obj_003b8#0001</v>
+      </c>
+      <c r="M11" s="179" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
@@ -9102,55 +9094,55 @@
       <c r="N12" s="45"/>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="245"/>
-      <c r="K19" s="245"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="244"/>
+      <c r="K19" s="244"/>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="245"/>
-      <c r="K20" s="245"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="244"/>
+      <c r="K20" s="244"/>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="245"/>
-      <c r="K21" s="245"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="244"/>
+      <c r="K21" s="244"/>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="245"/>
-      <c r="K22" s="245"/>
+      <c r="G22" s="243"/>
+      <c r="H22" s="243"/>
+      <c r="I22" s="244"/>
+      <c r="K22" s="244"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="245"/>
-      <c r="K23" s="245"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="244"/>
+      <c r="K23" s="244"/>
     </row>
     <row r="24" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="245"/>
-      <c r="K24" s="245"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="243"/>
+      <c r="I24" s="244"/>
+      <c r="K24" s="244"/>
     </row>
     <row r="25" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G25" s="244"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="245"/>
-      <c r="K25" s="245"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="244"/>
+      <c r="K25" s="244"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="245"/>
-      <c r="K26" s="245"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="244"/>
+      <c r="K26" s="244"/>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="K27" s="246"/>
+      <c r="K27" s="245"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -9187,8 +9179,8 @@
     <col min="8" max="9" width="19.28515625" style="157" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="157" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="157" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="185" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="185" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="184" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="184" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" style="157" customWidth="1"/>
     <col min="15" max="15" width="2.7109375" style="157" customWidth="1"/>
     <col min="16" max="16" width="2.5703125" style="157" customWidth="1"/>
@@ -9248,14 +9240,14 @@
       <c r="K2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="175" t="s">
+      <c r="L2" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="176" t="str">
+      <c r="M2" s="175" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(M3:M19,SerializationPath&amp;M1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="N2" s="187" t="str">
+      <c r="N2" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(M2)</f>
         <v/>
       </c>
@@ -9263,24 +9255,24 @@
     </row>
     <row r="3" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="263" t="b">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="262" t="b">
         <v>1</v>
       </c>
       <c r="M3" s="87" t="str">
         <f>_xll.qlLibor(,Currency,"6M",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b0#0000</v>
-      </c>
-      <c r="N3" s="188" t="str">
+        <v>obj_003b2#0001</v>
+      </c>
+      <c r="N3" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(M3)</f>
         <v/>
       </c>
@@ -9320,15 +9312,15 @@
         <f t="shared" ref="K4:K19" si="1">Currency&amp;$E4&amp;$F4&amp;$D4&amp;QuoteSuffix</f>
         <v>GBPSB6L3Y_Quote</v>
       </c>
-      <c r="L4" s="260" t="str">
+      <c r="L4" s="259" t="str">
         <f t="shared" ref="L4:L19" si="2">Currency&amp;$E4&amp;$F4&amp;$D4&amp;LCHQuoteSuffix</f>
         <v>GBPSB6L3Y_LCHQuote</v>
       </c>
       <c r="M4" s="136" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L4,$K4),B4,$D4,Calendar,$G4,$H4,$I4,$M$3,$J4,C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c7#0000</v>
-      </c>
-      <c r="N4" s="189" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L4,$K4),B4,$D4,Calendar,$G4,$H4,$I4,$M$3,$J4,C4,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c0#0001</v>
+      </c>
+      <c r="N4" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(M4)</f>
         <v/>
       </c>
@@ -9368,15 +9360,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L4Y_Quote</v>
       </c>
-      <c r="L5" s="261" t="str">
+      <c r="L5" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L4Y_LCHQuote</v>
       </c>
       <c r="M5" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L5,$K5),B5,$D5,Calendar,$G5,$H5,$I5,$M$3,$J5,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c1#0000</v>
-      </c>
-      <c r="N5" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L5,$K5),B5,$D5,Calendar,$G5,$H5,$I5,$M$3,$J5,C5,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003cf#0001</v>
+      </c>
+      <c r="N5" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M5)</f>
         <v/>
       </c>
@@ -9416,15 +9408,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L5Y_Quote</v>
       </c>
-      <c r="L6" s="261" t="str">
+      <c r="L6" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L5Y_LCHQuote</v>
       </c>
       <c r="M6" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L6,$K6),B6,$D6,Calendar,$G6,$H6,$I6,$M$3,$J6,C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c0#0000</v>
-      </c>
-      <c r="N6" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L6,$K6),B6,$D6,Calendar,$G6,$H6,$I6,$M$3,$J6,C6,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c3#0001</v>
+      </c>
+      <c r="N6" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M6)</f>
         <v/>
       </c>
@@ -9464,15 +9456,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L6Y_Quote</v>
       </c>
-      <c r="L7" s="261" t="str">
+      <c r="L7" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L6Y_LCHQuote</v>
       </c>
       <c r="M7" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L7,$K7),B7,$D7,Calendar,$G7,$H7,$I7,$M$3,$J7,C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bb#0000</v>
-      </c>
-      <c r="N7" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L7,$K7),B7,$D7,Calendar,$G7,$H7,$I7,$M$3,$J7,C7,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c6#0001</v>
+      </c>
+      <c r="N7" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M7)</f>
         <v/>
       </c>
@@ -9512,15 +9504,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L7Y_Quote</v>
       </c>
-      <c r="L8" s="261" t="str">
+      <c r="L8" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L7Y_LCHQuote</v>
       </c>
       <c r="M8" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L8,$K8),B8,$D8,Calendar,$G8,$H8,$I8,$M$3,$J8,C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bc#0000</v>
-      </c>
-      <c r="N8" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L8,$K8),B8,$D8,Calendar,$G8,$H8,$I8,$M$3,$J8,C8,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c8#0001</v>
+      </c>
+      <c r="N8" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M8)</f>
         <v/>
       </c>
@@ -9560,15 +9552,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L8Y_Quote</v>
       </c>
-      <c r="L9" s="261" t="str">
+      <c r="L9" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L8Y_LCHQuote</v>
       </c>
       <c r="M9" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L9,$K9),B9,$D9,Calendar,$G9,$H9,$I9,$M$3,$J9,C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cd#0000</v>
-      </c>
-      <c r="N9" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L9,$K9),B9,$D9,Calendar,$G9,$H9,$I9,$M$3,$J9,C9,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003ce#0001</v>
+      </c>
+      <c r="N9" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M9)</f>
         <v/>
       </c>
@@ -9608,15 +9600,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L9Y_Quote</v>
       </c>
-      <c r="L10" s="261" t="str">
+      <c r="L10" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L9Y_LCHQuote</v>
       </c>
       <c r="M10" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L10,$K10),B10,$D10,Calendar,$G10,$H10,$I10,$M$3,$J10,C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c9#0000</v>
-      </c>
-      <c r="N10" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L10,$K10),B10,$D10,Calendar,$G10,$H10,$I10,$M$3,$J10,C10,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c5#0001</v>
+      </c>
+      <c r="N10" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M10)</f>
         <v/>
       </c>
@@ -9656,15 +9648,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L10Y_Quote</v>
       </c>
-      <c r="L11" s="261" t="str">
+      <c r="L11" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L10Y_LCHQuote</v>
       </c>
       <c r="M11" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L11,$K11),B11,$D11,Calendar,$G11,$H11,$I11,$M$3,$J11,C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ca#0000</v>
-      </c>
-      <c r="N11" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L11,$K11),B11,$D11,Calendar,$G11,$H11,$I11,$M$3,$J11,C11,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c2#0001</v>
+      </c>
+      <c r="N11" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M11)</f>
         <v/>
       </c>
@@ -9704,15 +9696,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L12Y_Quote</v>
       </c>
-      <c r="L12" s="261" t="str">
+      <c r="L12" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L12Y_LCHQuote</v>
       </c>
       <c r="M12" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L12,$K12),B12,$D12,Calendar,$G12,$H12,$I12,$M$3,$J12,C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bf#0000</v>
-      </c>
-      <c r="N12" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L12,$K12),B12,$D12,Calendar,$G12,$H12,$I12,$M$3,$J12,C12,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003cd#0001</v>
+      </c>
+      <c r="N12" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M12)</f>
         <v/>
       </c>
@@ -9752,15 +9744,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L15Y_Quote</v>
       </c>
-      <c r="L13" s="261" t="str">
+      <c r="L13" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L15Y_LCHQuote</v>
       </c>
       <c r="M13" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L13,$K13),B13,$D13,Calendar,$G13,$H13,$I13,$M$3,$J13,C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b6#0000</v>
-      </c>
-      <c r="N13" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L13,$K13),B13,$D13,Calendar,$G13,$H13,$I13,$M$3,$J13,C13,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003cc#0001</v>
+      </c>
+      <c r="N13" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M13)</f>
         <v/>
       </c>
@@ -9800,15 +9792,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L20Y_Quote</v>
       </c>
-      <c r="L14" s="261" t="str">
+      <c r="L14" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L20Y_LCHQuote</v>
       </c>
       <c r="M14" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L14,$K14),B14,$D14,Calendar,$G14,$H14,$I14,$M$3,$J14,C14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c5#0000</v>
-      </c>
-      <c r="N14" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L14,$K14),B14,$D14,Calendar,$G14,$H14,$I14,$M$3,$J14,C14,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003cb#0001</v>
+      </c>
+      <c r="N14" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M14)</f>
         <v/>
       </c>
@@ -9848,15 +9840,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L25Y_Quote</v>
       </c>
-      <c r="L15" s="261" t="str">
+      <c r="L15" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L25Y_LCHQuote</v>
       </c>
       <c r="M15" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L15,$K15),B15,$D15,Calendar,$G15,$H15,$I15,$M$3,$J15,C15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c2#0000</v>
-      </c>
-      <c r="N15" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L15,$K15),B15,$D15,Calendar,$G15,$H15,$I15,$M$3,$J15,C15,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003ca#0001</v>
+      </c>
+      <c r="N15" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M15)</f>
         <v/>
       </c>
@@ -9896,15 +9888,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L30Y_Quote</v>
       </c>
-      <c r="L16" s="261" t="str">
+      <c r="L16" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L30Y_LCHQuote</v>
       </c>
       <c r="M16" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L16,$K16),B16,$D16,Calendar,$G16,$H16,$I16,$M$3,$J16,C16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c3#0000</v>
-      </c>
-      <c r="N16" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L16,$K16),B16,$D16,Calendar,$G16,$H16,$I16,$M$3,$J16,C16,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c9#0001</v>
+      </c>
+      <c r="N16" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M16)</f>
         <v/>
       </c>
@@ -9944,15 +9936,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L40Y_Quote</v>
       </c>
-      <c r="L17" s="261" t="str">
+      <c r="L17" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L40Y_LCHQuote</v>
       </c>
       <c r="M17" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L17,$K17),B17,$D17,Calendar,$G17,$H17,$I17,$M$3,$J17,C17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004be#0000</v>
-      </c>
-      <c r="N17" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L17,$K17),B17,$D17,Calendar,$G17,$H17,$I17,$M$3,$J17,C17,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c7#0001</v>
+      </c>
+      <c r="N17" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M17)</f>
         <v/>
       </c>
@@ -9992,15 +9984,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L50Y_Quote</v>
       </c>
-      <c r="L18" s="261" t="str">
+      <c r="L18" s="260" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L50Y_LCHQuote</v>
       </c>
       <c r="M18" s="137" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L18,$K18),B18,$D18,Calendar,$G18,$H18,$I18,$M$3,$J18,C18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b7#0000</v>
-      </c>
-      <c r="N18" s="190" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L18,$K18),B18,$D18,Calendar,$G18,$H18,$I18,$M$3,$J18,C18,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c4#0001</v>
+      </c>
+      <c r="N18" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(M18)</f>
         <v/>
       </c>
@@ -10040,15 +10032,15 @@
         <f t="shared" si="1"/>
         <v>GBPSB6L60Y_Quote</v>
       </c>
-      <c r="L19" s="262" t="str">
+      <c r="L19" s="261" t="str">
         <f t="shared" si="2"/>
         <v>GBPSB6L60Y_LCHQuote</v>
       </c>
       <c r="M19" s="138" t="str">
-        <f>_xll.qlSwapRateHelper2(,IF($L$3,L19,$K19),B19,$D19,Calendar,$G19,$H19,$I19,$M$3,$J19,C19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cc#0000</v>
-      </c>
-      <c r="N19" s="191" t="str">
+        <f>_xll.qlSwapRateHelper2(,IF($L$3,L19,$K19),B19,$D19,Calendar,$G19,$H19,$I19,$M$3,$J19,C19,,,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c1#0001</v>
+      </c>
+      <c r="N19" s="190" t="str">
         <f>_xll.ohRangeRetrieveError(M19)</f>
         <v/>
       </c>
@@ -10099,1809 +10091,1809 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="215" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="215" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.85546875" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="17.28515625" style="215" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5" style="215" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="215" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="215" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="12" width="9" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.140625" style="215" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12" style="215" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="215" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="215"/>
+    <col min="1" max="1" width="12" style="214" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="214" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="214" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.85546875" style="214" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.28515625" style="214" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5" style="214" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="214" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="214" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="214" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="12" width="9" style="214" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8" style="214" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.140625" style="214" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12" style="214" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="214" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="214"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="273" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="277" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="276" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="214"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="213"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="216" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="218"/>
-      <c r="H2" s="217" t="s">
+      <c r="G2" s="217"/>
+      <c r="H2" s="216" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="217" t="s">
+      <c r="I2" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="217" t="s">
+      <c r="J2" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="217" t="s">
+      <c r="K2" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="217" t="s">
+      <c r="L2" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="217" t="s">
+      <c r="M2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="217" t="s">
+      <c r="N2" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="217" t="s">
+      <c r="O2" s="216" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="214"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="213"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="219" t="str">
+      <c r="A3" s="218" t="str">
         <f t="array" ref="A3:A30">[1]STD!$B$3:$B$30</f>
         <v>GBPOND</v>
       </c>
-      <c r="B3" s="220">
+      <c r="B3" s="219">
         <f t="array" ref="B3:B30">[1]STD!$C$3:$C$30</f>
         <v>42193</v>
       </c>
-      <c r="C3" s="221">
+      <c r="C3" s="220">
         <f t="array" ref="C3:C30">[1]STD!$E$3:$E$30</f>
         <v>4.8250000000000003E-3</v>
       </c>
-      <c r="D3" s="221">
+      <c r="D3" s="220">
         <f>Selected!F2</f>
         <v>4.8250000000000003E-3</v>
       </c>
-      <c r="E3" s="222">
+      <c r="E3" s="221">
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="220">
+      <c r="F3" s="219">
         <f>Selected!J2</f>
         <v>42193</v>
       </c>
-      <c r="G3" s="218"/>
-      <c r="H3" s="223" t="s">
+      <c r="G3" s="217"/>
+      <c r="H3" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="220">
+      <c r="I3" s="219">
         <v>42193</v>
       </c>
-      <c r="J3" s="224">
+      <c r="J3" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I3,,,Trigger)</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="K3" s="225">
+      <c r="K3" s="224">
         <v>4.82496810900557E-3</v>
       </c>
-      <c r="L3" s="225">
+      <c r="L3" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I3,$J$2,,,TRUE,Trigger)</f>
         <v>4.8249681090055665E-3</v>
       </c>
-      <c r="M3" s="222">
+      <c r="M3" s="221">
         <f>L3-K3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="226">
+      <c r="N3" s="225">
         <v>0.99998678099666205</v>
       </c>
-      <c r="O3" s="226">
+      <c r="O3" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I3,TRUE,Trigger)</f>
         <v>0.99998678099666227</v>
       </c>
-      <c r="P3" s="222">
+      <c r="P3" s="221">
         <f>N3-O3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="214"/>
+      <c r="Q3" s="213"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="219" t="str">
+      <c r="A4" s="218" t="str">
         <v>GBP1WD</v>
       </c>
-      <c r="B4" s="220">
+      <c r="B4" s="219">
         <v>42199</v>
       </c>
-      <c r="C4" s="221">
+      <c r="C4" s="220">
         <v>4.8925000000000001E-3</v>
       </c>
-      <c r="D4" s="221">
+      <c r="D4" s="220">
         <f>Selected!F3</f>
         <v>4.8925000000000001E-3</v>
       </c>
-      <c r="E4" s="222">
+      <c r="E4" s="221">
         <f t="shared" ref="E4:E30" si="0">C4-D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="220">
+      <c r="F4" s="219">
         <f>Selected!J3</f>
         <v>42199</v>
       </c>
-      <c r="G4" s="218"/>
-      <c r="H4" s="223" t="s">
+      <c r="G4" s="217"/>
+      <c r="H4" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="220">
+      <c r="I4" s="219">
         <v>42199</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I4,,,Trigger)</f>
         <v>1.9178082191780823E-2</v>
       </c>
-      <c r="K4" s="225">
+      <c r="K4" s="224">
         <v>4.8922704857341801E-3</v>
       </c>
-      <c r="L4" s="225">
+      <c r="L4" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I4,$J$2,,,TRUE,Trigger)</f>
         <v>4.8922704857457559E-3</v>
       </c>
-      <c r="M4" s="222">
+      <c r="M4" s="221">
         <f t="shared" ref="M4:M31" si="1">L4-K4</f>
         <v>1.1575809755193234E-14</v>
       </c>
-      <c r="N4" s="226">
+      <c r="N4" s="225">
         <v>0.99990618003588805</v>
       </c>
-      <c r="O4" s="226">
+      <c r="O4" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I4,TRUE,Trigger)</f>
         <v>0.99990618003588816</v>
       </c>
-      <c r="P4" s="222">
+      <c r="P4" s="221">
         <f t="shared" ref="P4:P31" si="2">N4-O4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="214"/>
+      <c r="Q4" s="213"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="219" t="str">
+      <c r="A5" s="218" t="str">
         <v>GBP1MD</v>
       </c>
-      <c r="B5" s="220">
+      <c r="B5" s="219">
         <v>42223</v>
       </c>
-      <c r="C5" s="221">
+      <c r="C5" s="220">
         <v>5.0724999999999998E-3</v>
       </c>
-      <c r="D5" s="221">
+      <c r="D5" s="220">
         <f>Selected!F4</f>
         <v>5.0724999999999998E-3</v>
       </c>
-      <c r="E5" s="222">
+      <c r="E5" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="220">
+      <c r="F5" s="219">
         <f>Selected!J4</f>
         <v>42223</v>
       </c>
-      <c r="G5" s="218"/>
-      <c r="H5" s="223" t="s">
+      <c r="G5" s="217"/>
+      <c r="H5" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="220">
+      <c r="I5" s="219">
         <v>42222</v>
       </c>
-      <c r="J5" s="224">
+      <c r="J5" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I5,,,Trigger)</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="K5" s="225">
+      <c r="K5" s="224">
         <v>5.0639436101155297E-3</v>
       </c>
-      <c r="L5" s="225">
+      <c r="L5" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I5,$J$2,,,TRUE,Trigger)</f>
         <v>5.0639436101188578E-3</v>
       </c>
-      <c r="M5" s="222">
+      <c r="M5" s="221">
         <f t="shared" si="1"/>
         <v>3.3280669886615044E-15</v>
       </c>
-      <c r="N5" s="226">
+      <c r="N5" s="225">
         <v>0.99958387206195998</v>
       </c>
-      <c r="O5" s="226">
+      <c r="O5" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I5,TRUE,Trigger)</f>
         <v>0.99958387206195976</v>
       </c>
-      <c r="P5" s="222">
+      <c r="P5" s="221">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="214"/>
+      <c r="Q5" s="213"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="219" t="str">
+      <c r="A6" s="218" t="str">
         <v>GBP2MD</v>
       </c>
-      <c r="B6" s="220">
+      <c r="B6" s="219">
         <v>42254</v>
       </c>
-      <c r="C6" s="221">
+      <c r="C6" s="220">
         <v>5.3899999999999998E-3</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="220">
         <f>Selected!F5</f>
         <v>5.3899999999999998E-3</v>
       </c>
-      <c r="E6" s="222">
+      <c r="E6" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="220">
+      <c r="F6" s="219">
         <f>Selected!J5</f>
         <v>42254</v>
       </c>
-      <c r="G6" s="218"/>
-      <c r="H6" s="223" t="s">
+      <c r="G6" s="217"/>
+      <c r="H6" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="220">
+      <c r="I6" s="219">
         <v>42252</v>
       </c>
-      <c r="J6" s="224">
+      <c r="J6" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I6,,,Trigger)</f>
         <v>0.16438356164383561</v>
       </c>
-      <c r="K6" s="225">
+      <c r="K6" s="224">
         <v>5.3671388143080598E-3</v>
       </c>
-      <c r="L6" s="225">
+      <c r="L6" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I6,$J$2,,,TRUE,Trigger)</f>
         <v>5.3671388143074804E-3</v>
       </c>
-      <c r="M6" s="222">
+      <c r="M6" s="221">
         <f t="shared" si="1"/>
         <v>-5.7939764097625357E-16</v>
       </c>
-      <c r="N6" s="226">
+      <c r="N6" s="225">
         <v>0.999118119691075</v>
       </c>
-      <c r="O6" s="226">
+      <c r="O6" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I6,TRUE,Trigger)</f>
         <v>0.99911811969107478</v>
       </c>
-      <c r="P6" s="222">
+      <c r="P6" s="221">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="214"/>
+      <c r="Q6" s="213"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="219" t="str">
+      <c r="A7" s="218" t="str">
         <v>FSSU5</v>
       </c>
-      <c r="B7" s="220">
+      <c r="B7" s="219">
         <v>42354</v>
       </c>
-      <c r="C7" s="221">
+      <c r="C7" s="220">
         <v>6.0939999999999996E-3</v>
       </c>
-      <c r="D7" s="221">
+      <c r="D7" s="220">
         <f>Selected!F6</f>
         <v>6.0940000000000438E-3</v>
       </c>
-      <c r="E7" s="222">
+      <c r="E7" s="221">
         <f t="shared" si="0"/>
         <v>-4.4235448637408581E-17</v>
       </c>
-      <c r="F7" s="220">
+      <c r="F7" s="219">
         <f>Selected!J6</f>
         <v>42354</v>
       </c>
-      <c r="G7" s="227"/>
-      <c r="H7" s="223" t="s">
+      <c r="G7" s="226"/>
+      <c r="H7" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="220">
+      <c r="I7" s="219">
         <v>42283</v>
       </c>
-      <c r="J7" s="224">
+      <c r="J7" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I7,,,Trigger)</f>
         <v>0.24931506849315069</v>
       </c>
-      <c r="K7" s="225">
+      <c r="K7" s="224">
         <v>5.5065597722218501E-3</v>
       </c>
-      <c r="L7" s="225">
+      <c r="L7" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I7,$J$2,,,TRUE,Trigger)</f>
         <v>5.506559772221249E-3</v>
       </c>
-      <c r="M7" s="222">
+      <c r="M7" s="221">
         <f t="shared" si="1"/>
         <v>-6.0108168442596366E-16</v>
       </c>
-      <c r="N7" s="226">
+      <c r="N7" s="225">
         <v>0.99862807362584005</v>
       </c>
-      <c r="O7" s="226">
+      <c r="O7" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I7,TRUE,Trigger)</f>
         <v>0.99862807362584016</v>
       </c>
-      <c r="P7" s="222">
+      <c r="P7" s="221">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="214"/>
+      <c r="Q7" s="213"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="219" t="str">
+      <c r="A8" s="218" t="str">
         <v>FSSZ5</v>
       </c>
-      <c r="B8" s="220">
+      <c r="B8" s="219">
         <v>42445</v>
       </c>
-      <c r="C8" s="221">
+      <c r="C8" s="220">
         <v>6.6829999999999997E-3</v>
       </c>
-      <c r="D8" s="221">
+      <c r="D8" s="220">
         <f>Selected!F7</f>
         <v>6.6829999999999945E-3</v>
       </c>
-      <c r="E8" s="222">
+      <c r="E8" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="220">
+      <c r="F8" s="219">
         <f>Selected!J7</f>
         <v>42445</v>
       </c>
-      <c r="G8" s="218"/>
-      <c r="H8" s="223" t="s">
+      <c r="G8" s="217"/>
+      <c r="H8" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="220">
+      <c r="I8" s="219">
         <v>42374</v>
       </c>
-      <c r="J8" s="224">
+      <c r="J8" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I8,,,Trigger)</f>
         <v>0.49863013698630138</v>
       </c>
-      <c r="K8" s="225">
+      <c r="K8" s="224">
         <v>5.8674909439311602E-3</v>
       </c>
-      <c r="L8" s="225">
+      <c r="L8" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I8,$J$2,,,TRUE,Trigger)</f>
         <v>5.8674909439306042E-3</v>
       </c>
-      <c r="M8" s="222">
+      <c r="M8" s="221">
         <f t="shared" si="1"/>
         <v>-5.5597887405056667E-16</v>
       </c>
-      <c r="N8" s="226">
+      <c r="N8" s="225">
         <v>0.99707856789912097</v>
       </c>
-      <c r="O8" s="226">
+      <c r="O8" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I8,TRUE,Trigger)</f>
         <v>0.99707856789912119</v>
       </c>
-      <c r="P8" s="222">
+      <c r="P8" s="221">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="214"/>
+      <c r="Q8" s="213"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="219" t="str">
+      <c r="A9" s="218" t="str">
         <v>FSSH6</v>
       </c>
-      <c r="B9" s="220">
+      <c r="B9" s="219">
         <v>42536</v>
       </c>
-      <c r="C9" s="221">
+      <c r="C9" s="220">
         <v>7.6669959999999997E-3</v>
       </c>
-      <c r="D9" s="221">
+      <c r="D9" s="220">
         <f>Selected!F8</f>
         <v>7.6669959999999815E-3</v>
       </c>
-      <c r="E9" s="222">
+      <c r="E9" s="221">
         <f t="shared" si="0"/>
         <v>1.8214596497756474E-17</v>
       </c>
-      <c r="F9" s="220">
+      <c r="F9" s="219">
         <f>Selected!J8</f>
         <v>42536</v>
       </c>
-      <c r="G9" s="218"/>
-      <c r="H9" s="223" t="s">
+      <c r="G9" s="217"/>
+      <c r="H9" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="220">
+      <c r="I9" s="219">
         <v>42465</v>
       </c>
-      <c r="J9" s="224">
+      <c r="J9" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I9,,,Trigger)</f>
         <v>0.74794520547945209</v>
       </c>
-      <c r="K9" s="225">
+      <c r="K9" s="224">
         <v>6.2041419691292897E-3</v>
       </c>
-      <c r="L9" s="225">
+      <c r="L9" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I9,$J$2,,,TRUE,Trigger)</f>
         <v>6.2041466369500888E-3</v>
       </c>
-      <c r="M9" s="222">
+      <c r="M9" s="221">
         <f t="shared" si="1"/>
         <v>4.6678207991576737E-9</v>
       </c>
-      <c r="N9" s="226">
+      <c r="N9" s="225">
         <v>0.99537039158826102</v>
       </c>
-      <c r="O9" s="226">
+      <c r="O9" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I9,TRUE,Trigger)</f>
         <v>0.99537038811314993</v>
       </c>
-      <c r="P9" s="222">
+      <c r="P9" s="221">
         <f t="shared" si="2"/>
         <v>3.4751110877806468E-9</v>
       </c>
-      <c r="Q9" s="214"/>
+      <c r="Q9" s="213"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="219" t="str">
+      <c r="A10" s="218" t="str">
         <v>FSSM6</v>
       </c>
-      <c r="B10" s="220">
+      <c r="B10" s="219">
         <v>42634</v>
       </c>
-      <c r="C10" s="221">
+      <c r="C10" s="220">
         <v>8.9449874999999995E-3</v>
       </c>
-      <c r="D10" s="221">
+      <c r="D10" s="220">
         <f>Selected!F9</f>
         <v>8.9449874999999457E-3</v>
       </c>
-      <c r="E10" s="222">
+      <c r="E10" s="221">
         <f t="shared" si="0"/>
         <v>5.377642775528102E-17</v>
       </c>
-      <c r="F10" s="220">
+      <c r="F10" s="219">
         <f>Selected!J9</f>
         <v>42634</v>
       </c>
-      <c r="G10" s="218"/>
-      <c r="H10" s="223" t="s">
+      <c r="G10" s="217"/>
+      <c r="H10" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="220">
+      <c r="I10" s="219">
         <v>42557</v>
       </c>
-      <c r="J10" s="224">
+      <c r="J10" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I10,,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="225">
+      <c r="K10" s="224">
         <v>6.6376737639597299E-3</v>
       </c>
-      <c r="L10" s="225">
+      <c r="L10" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I10,$J$2,,,TRUE,Trigger)</f>
         <v>6.6376628464513447E-3</v>
       </c>
-      <c r="M10" s="222">
+      <c r="M10" s="221">
         <f t="shared" si="1"/>
         <v>-1.0917508385180352E-8</v>
       </c>
-      <c r="N10" s="226">
+      <c r="N10" s="225">
         <v>0.99338430693208601</v>
       </c>
-      <c r="O10" s="226">
+      <c r="O10" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I10,TRUE,Trigger)</f>
         <v>0.9933843177773678</v>
       </c>
-      <c r="P10" s="222">
+      <c r="P10" s="221">
         <f t="shared" si="2"/>
         <v>-1.0845281783744554E-8</v>
       </c>
-      <c r="Q10" s="214"/>
+      <c r="Q10" s="213"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="219" t="str">
+      <c r="A11" s="218" t="str">
         <v>FSSU6</v>
       </c>
-      <c r="B11" s="220">
+      <c r="B11" s="219">
         <v>42725</v>
       </c>
-      <c r="C11" s="221">
+      <c r="C11" s="220">
         <v>1.042E-2</v>
       </c>
-      <c r="D11" s="221">
+      <c r="D11" s="220">
         <f>Selected!F10</f>
         <v>1.0419999999999985E-2</v>
       </c>
-      <c r="E11" s="222">
+      <c r="E11" s="221">
         <f t="shared" si="0"/>
         <v>1.5612511283791264E-17</v>
       </c>
-      <c r="F11" s="220">
+      <c r="F11" s="219">
         <f>Selected!J10</f>
         <v>42725</v>
       </c>
-      <c r="G11" s="218"/>
-      <c r="H11" s="223" t="s">
+      <c r="G11" s="217"/>
+      <c r="H11" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="220">
+      <c r="I11" s="219">
         <v>42739</v>
       </c>
-      <c r="J11" s="224">
+      <c r="J11" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I11,,,Trigger)</f>
         <v>1.4986301369863013</v>
       </c>
-      <c r="K11" s="225">
+      <c r="K11" s="224">
         <v>7.7258781780925904E-3</v>
       </c>
-      <c r="L11" s="225">
+      <c r="L11" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I11,$J$2,,,TRUE,Trigger)</f>
         <v>7.7258000480031177E-3</v>
       </c>
-      <c r="M11" s="222">
+      <c r="M11" s="221">
         <f t="shared" si="1"/>
         <v>-7.8130089472758235E-8</v>
       </c>
-      <c r="N11" s="226">
+      <c r="N11" s="225">
         <v>0.98848853593682895</v>
       </c>
-      <c r="O11" s="226">
+      <c r="O11" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I11,TRUE,Trigger)</f>
         <v>0.98848865167708688</v>
       </c>
-      <c r="P11" s="222">
+      <c r="P11" s="221">
         <f t="shared" si="2"/>
         <v>-1.1574025793326115E-7</v>
       </c>
-      <c r="Q11" s="214"/>
+      <c r="Q11" s="213"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="219" t="str">
+      <c r="A12" s="218" t="str">
         <v>FSSZ6</v>
       </c>
-      <c r="B12" s="220">
+      <c r="B12" s="219">
         <v>42809</v>
       </c>
-      <c r="C12" s="221">
+      <c r="C12" s="220">
         <v>1.1892E-2</v>
       </c>
-      <c r="D12" s="221">
+      <c r="D12" s="220">
         <f>Selected!F11</f>
         <v>1.1892000000000014E-2</v>
       </c>
-      <c r="E12" s="222">
+      <c r="E12" s="221">
         <f t="shared" si="0"/>
         <v>-1.3877787807814457E-17</v>
       </c>
-      <c r="F12" s="220">
+      <c r="F12" s="219">
         <f>Selected!J11</f>
         <v>42809</v>
       </c>
-      <c r="G12" s="218"/>
-      <c r="H12" s="223" t="s">
+      <c r="G12" s="217"/>
+      <c r="H12" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="220">
+      <c r="I12" s="219">
         <v>42922</v>
       </c>
-      <c r="J12" s="224">
+      <c r="J12" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I12,,,Trigger)</f>
         <v>2</v>
       </c>
-      <c r="K12" s="225">
+      <c r="K12" s="224">
         <v>8.9930489638510094E-3</v>
       </c>
-      <c r="L12" s="225">
+      <c r="L12" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I12,$J$2,,,TRUE,Trigger)</f>
         <v>8.9929176677494491E-3</v>
       </c>
-      <c r="M12" s="222">
+      <c r="M12" s="221">
         <f t="shared" si="1"/>
         <v>-1.3129610156037419E-7</v>
       </c>
-      <c r="N12" s="226">
+      <c r="N12" s="225">
         <v>0.98217468652689099</v>
       </c>
-      <c r="O12" s="226">
+      <c r="O12" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I12,TRUE,Trigger)</f>
         <v>0.98217494443833997</v>
       </c>
-      <c r="P12" s="222">
+      <c r="P12" s="221">
         <f t="shared" si="2"/>
         <v>-2.5791144897535645E-7</v>
       </c>
-      <c r="Q12" s="214"/>
+      <c r="Q12" s="213"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="219" t="str">
+      <c r="A13" s="218" t="str">
         <v>FSSH7</v>
       </c>
-      <c r="B13" s="220">
+      <c r="B13" s="219">
         <v>42907</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1.32069675E-2</v>
       </c>
-      <c r="D13" s="221">
+      <c r="D13" s="220">
         <f>Selected!F12</f>
         <v>1.3206967499999944E-2</v>
       </c>
-      <c r="E13" s="222">
+      <c r="E13" s="221">
         <f t="shared" si="0"/>
         <v>5.5511151231257827E-17</v>
       </c>
-      <c r="F13" s="220">
+      <c r="F13" s="219">
         <f>Selected!J12</f>
         <v>42907</v>
       </c>
-      <c r="G13" s="218"/>
-      <c r="H13" s="223" t="s">
+      <c r="G13" s="217"/>
+      <c r="H13" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="220">
+      <c r="I13" s="219">
         <v>43287</v>
       </c>
-      <c r="J13" s="224">
+      <c r="J13" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I13,,,Trigger)</f>
         <v>3</v>
       </c>
-      <c r="K13" s="225">
+      <c r="K13" s="224">
         <v>1.24231757886365E-2</v>
       </c>
-      <c r="L13" s="225">
+      <c r="L13" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I13,$J$2,,,TRUE,Trigger)</f>
         <v>1.2419725519404469E-2</v>
       </c>
-      <c r="M13" s="222">
+      <c r="M13" s="221">
         <f t="shared" si="1"/>
         <v>-3.4502692320310946E-6</v>
       </c>
-      <c r="N13" s="226">
+      <c r="N13" s="225">
         <v>0.96341643325868498</v>
       </c>
-      <c r="O13" s="226">
+      <c r="O13" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I13,TRUE,Trigger)</f>
         <v>0.96342640544852731</v>
       </c>
-      <c r="P13" s="222">
+      <c r="P13" s="221">
         <f t="shared" si="2"/>
         <v>-9.9721898423332789E-6</v>
       </c>
-      <c r="Q13" s="214"/>
+      <c r="Q13" s="213"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="219" t="str">
+      <c r="A14" s="218" t="str">
         <v>FSSM7</v>
       </c>
-      <c r="B14" s="220">
+      <c r="B14" s="219">
         <v>42998</v>
       </c>
-      <c r="C14" s="221">
+      <c r="C14" s="220">
         <v>1.4468000199999999E-2</v>
       </c>
-      <c r="D14" s="221">
+      <c r="D14" s="220">
         <f>Selected!F13</f>
         <v>1.4468000200000164E-2</v>
       </c>
-      <c r="E14" s="222">
+      <c r="E14" s="221">
         <f t="shared" si="0"/>
         <v>-1.6479873021779667E-16</v>
       </c>
-      <c r="F14" s="220">
+      <c r="F14" s="219">
         <f>Selected!J13</f>
         <v>42998</v>
       </c>
-      <c r="G14" s="218"/>
-      <c r="H14" s="223" t="s">
+      <c r="G14" s="217"/>
+      <c r="H14" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="220">
+      <c r="I14" s="219">
         <v>43652</v>
       </c>
-      <c r="J14" s="224">
+      <c r="J14" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I14,,,Trigger)</f>
         <v>4</v>
       </c>
-      <c r="K14" s="225">
+      <c r="K14" s="224">
         <v>1.42745693174433E-2</v>
       </c>
-      <c r="L14" s="225">
+      <c r="L14" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I14,$J$2,,,TRUE,Trigger)</f>
         <v>1.4270556925483504E-2</v>
       </c>
-      <c r="M14" s="222">
+      <c r="M14" s="221">
         <f t="shared" si="1"/>
         <v>-4.0123919597956359E-6</v>
       </c>
-      <c r="N14" s="226">
+      <c r="N14" s="225">
         <v>0.94450124180183703</v>
       </c>
-      <c r="O14" s="226">
+      <c r="O14" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I14,TRUE,Trigger)</f>
         <v>0.94451640076023813</v>
       </c>
-      <c r="P14" s="222">
+      <c r="P14" s="221">
         <f t="shared" si="2"/>
         <v>-1.5158958401095823E-5</v>
       </c>
-      <c r="Q14" s="214"/>
+      <c r="Q14" s="213"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="219" t="str">
+      <c r="A15" s="218" t="str">
         <v>GBPSB6L3Y</v>
       </c>
-      <c r="B15" s="220">
+      <c r="B15" s="219">
         <v>43290</v>
       </c>
-      <c r="C15" s="221">
+      <c r="C15" s="220">
         <v>1.2434499999999999E-2</v>
       </c>
-      <c r="D15" s="221">
+      <c r="D15" s="220">
         <f>Selected!F14</f>
         <v>1.2434499999999999E-2</v>
       </c>
-      <c r="E15" s="222">
+      <c r="E15" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="220">
+      <c r="F15" s="219">
         <f>Selected!J14</f>
         <v>43290</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="223" t="s">
+      <c r="G15" s="217"/>
+      <c r="H15" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="220">
+      <c r="I15" s="219">
         <v>44017</v>
       </c>
-      <c r="J15" s="224">
+      <c r="J15" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I15,,,Trigger)</f>
         <v>5</v>
       </c>
-      <c r="K15" s="225">
+      <c r="K15" s="224">
         <v>1.5760449392245E-2</v>
       </c>
-      <c r="L15" s="225">
+      <c r="L15" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I15,$J$2,,,TRUE,Trigger)</f>
         <v>1.5756749417132992E-2</v>
       </c>
-      <c r="M15" s="222">
+      <c r="M15" s="221">
         <f t="shared" si="1"/>
         <v>-3.6999751120078694E-6</v>
       </c>
-      <c r="N15" s="226">
+      <c r="N15" s="225">
         <v>0.92422267421716098</v>
       </c>
-      <c r="O15" s="226">
+      <c r="O15" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I15,TRUE,Trigger)</f>
         <v>0.92423977237978039</v>
       </c>
-      <c r="P15" s="222">
+      <c r="P15" s="221">
         <f t="shared" si="2"/>
         <v>-1.7098162619411106E-5</v>
       </c>
-      <c r="Q15" s="214"/>
+      <c r="Q15" s="213"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="219" t="str">
+      <c r="A16" s="218" t="str">
         <v>GBPSB6L4Y</v>
       </c>
-      <c r="B16" s="220">
+      <c r="B16" s="219">
         <v>43654</v>
       </c>
-      <c r="C16" s="221">
+      <c r="C16" s="220">
         <v>1.4245499999999999E-2</v>
       </c>
-      <c r="D16" s="221">
+      <c r="D16" s="220">
         <f>Selected!F15</f>
         <v>1.4245499999999999E-2</v>
       </c>
-      <c r="E16" s="222">
+      <c r="E16" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="220">
+      <c r="F16" s="219">
         <f>Selected!J15</f>
         <v>43654</v>
       </c>
-      <c r="G16" s="218"/>
-      <c r="H16" s="223" t="s">
+      <c r="G16" s="217"/>
+      <c r="H16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="220">
+      <c r="I16" s="219">
         <v>44382</v>
       </c>
-      <c r="J16" s="224">
+      <c r="J16" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I16,,,Trigger)</f>
         <v>6</v>
       </c>
-      <c r="K16" s="225">
+      <c r="K16" s="224">
         <v>1.6998900520844001E-2</v>
       </c>
-      <c r="L16" s="225">
+      <c r="L16" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I16,$J$2,,,TRUE,Trigger)</f>
         <v>1.6995803560339185E-2</v>
       </c>
-      <c r="M16" s="222">
+      <c r="M16" s="221">
         <f t="shared" si="1"/>
         <v>-3.0969605048156157E-6</v>
       </c>
-      <c r="N16" s="226">
+      <c r="N16" s="225">
         <v>0.90303550886154205</v>
       </c>
-      <c r="O16" s="226">
+      <c r="O16" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I16,TRUE,Trigger)</f>
         <v>0.90305228900927625</v>
       </c>
-      <c r="P16" s="222">
+      <c r="P16" s="221">
         <f t="shared" si="2"/>
         <v>-1.6780147734207773E-5</v>
       </c>
-      <c r="Q16" s="214"/>
+      <c r="Q16" s="213"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="219" t="str">
+      <c r="A17" s="218" t="str">
         <v>GBPSB6L5Y</v>
       </c>
-      <c r="B17" s="220">
+      <c r="B17" s="219">
         <v>44019</v>
       </c>
-      <c r="C17" s="221">
+      <c r="C17" s="220">
         <v>1.5703249999999998E-2</v>
       </c>
-      <c r="D17" s="221">
+      <c r="D17" s="220">
         <f>Selected!F16</f>
         <v>1.5703249999999998E-2</v>
       </c>
-      <c r="E17" s="222">
+      <c r="E17" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="220">
+      <c r="F17" s="219">
         <f>Selected!J16</f>
         <v>44019</v>
       </c>
-      <c r="G17" s="218"/>
-      <c r="H17" s="223" t="s">
+      <c r="G17" s="217"/>
+      <c r="H17" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="220">
+      <c r="I17" s="219">
         <v>44747</v>
       </c>
-      <c r="J17" s="224">
+      <c r="J17" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I17,,,Trigger)</f>
         <v>7</v>
       </c>
-      <c r="K17" s="225">
+      <c r="K17" s="224">
         <v>1.8035037387698401E-2</v>
       </c>
-      <c r="L17" s="225">
+      <c r="L17" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I17,$J$2,,,TRUE,Trigger)</f>
         <v>1.8032374728619269E-2</v>
       </c>
-      <c r="M17" s="222">
+      <c r="M17" s="221">
         <f t="shared" si="1"/>
         <v>-2.6626590791320459E-6</v>
       </c>
-      <c r="N17" s="226">
+      <c r="N17" s="225">
         <v>0.88139864692896097</v>
       </c>
-      <c r="O17" s="226">
+      <c r="O17" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I17,TRUE,Trigger)</f>
         <v>0.88141507513082729</v>
       </c>
-      <c r="P17" s="222">
+      <c r="P17" s="221">
         <f t="shared" si="2"/>
         <v>-1.6428201866314218E-5</v>
       </c>
-      <c r="Q17" s="214"/>
+      <c r="Q17" s="213"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="219" t="str">
+      <c r="A18" s="218" t="str">
         <v>GBPSB6L6Y</v>
       </c>
-      <c r="B18" s="220">
+      <c r="B18" s="219">
         <v>44384</v>
       </c>
-      <c r="C18" s="221">
+      <c r="C18" s="220">
         <v>1.6909750000000001E-2</v>
       </c>
-      <c r="D18" s="221">
+      <c r="D18" s="220">
         <f>Selected!F17</f>
         <v>1.6909750000000001E-2</v>
       </c>
-      <c r="E18" s="222">
+      <c r="E18" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="220">
+      <c r="F18" s="219">
         <f>Selected!J17</f>
         <v>44384</v>
       </c>
-      <c r="G18" s="218"/>
-      <c r="H18" s="223" t="s">
+      <c r="G18" s="217"/>
+      <c r="H18" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="220">
+      <c r="I18" s="219">
         <v>45112</v>
       </c>
-      <c r="J18" s="224">
+      <c r="J18" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I18,,,Trigger)</f>
         <v>8</v>
       </c>
-      <c r="K18" s="225">
+      <c r="K18" s="224">
         <v>1.8894533815803902E-2</v>
       </c>
-      <c r="L18" s="225">
+      <c r="L18" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I18,$J$2,,,TRUE,Trigger)</f>
         <v>1.889279083272203E-2</v>
       </c>
-      <c r="M18" s="222">
+      <c r="M18" s="221">
         <f t="shared" si="1"/>
         <v>-1.7429830818718739E-6</v>
       </c>
-      <c r="N18" s="226">
+      <c r="N18" s="225">
         <v>0.85971334030508395</v>
       </c>
-      <c r="O18" s="226">
+      <c r="O18" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I18,TRUE,Trigger)</f>
         <v>0.85972532811512148</v>
       </c>
-      <c r="P18" s="222">
+      <c r="P18" s="221">
         <f t="shared" si="2"/>
         <v>-1.1987810037528135E-5</v>
       </c>
-      <c r="Q18" s="214"/>
+      <c r="Q18" s="213"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="219" t="str">
+      <c r="A19" s="218" t="str">
         <v>GBPSB6L7Y</v>
       </c>
-      <c r="B19" s="220">
+      <c r="B19" s="219">
         <v>44749</v>
       </c>
-      <c r="C19" s="221">
+      <c r="C19" s="220">
         <v>1.7912000000000001E-2</v>
       </c>
-      <c r="D19" s="221">
+      <c r="D19" s="220">
         <f>Selected!F18</f>
         <v>1.7912000000000001E-2</v>
       </c>
-      <c r="E19" s="222">
+      <c r="E19" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="220">
+      <c r="F19" s="219">
         <f>Selected!J18</f>
         <v>44749</v>
       </c>
-      <c r="G19" s="218"/>
-      <c r="H19" s="223" t="s">
+      <c r="G19" s="217"/>
+      <c r="H19" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="220">
+      <c r="I19" s="219">
         <v>45477</v>
       </c>
-      <c r="J19" s="224">
+      <c r="J19" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I19,,,Trigger)</f>
         <v>9</v>
       </c>
-      <c r="K19" s="225">
+      <c r="K19" s="224">
         <v>1.9607447561683599E-2</v>
       </c>
-      <c r="L19" s="225">
+      <c r="L19" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I19,$J$2,,,TRUE,Trigger)</f>
         <v>1.9605899712354286E-2</v>
       </c>
-      <c r="M19" s="222">
+      <c r="M19" s="221">
         <f t="shared" si="1"/>
         <v>-1.5478493293127893E-6</v>
       </c>
-      <c r="N19" s="226">
+      <c r="N19" s="225">
         <v>0.83822641665472997</v>
       </c>
-      <c r="O19" s="226">
+      <c r="O19" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I19,TRUE,Trigger)</f>
         <v>0.83823809376983671</v>
       </c>
-      <c r="P19" s="222">
+      <c r="P19" s="221">
         <f t="shared" si="2"/>
         <v>-1.1677115106745184E-5</v>
       </c>
-      <c r="Q19" s="214"/>
+      <c r="Q19" s="213"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="219" t="str">
+      <c r="A20" s="218" t="str">
         <v>GBPSB6L8Y</v>
       </c>
-      <c r="B20" s="220">
+      <c r="B20" s="219">
         <v>45114</v>
       </c>
-      <c r="C20" s="221">
+      <c r="C20" s="220">
         <v>1.8738000000000001E-2</v>
       </c>
-      <c r="D20" s="221">
+      <c r="D20" s="220">
         <f>Selected!F19</f>
         <v>1.8738000000000001E-2</v>
       </c>
-      <c r="E20" s="222">
+      <c r="E20" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="220">
+      <c r="F20" s="219">
         <f>Selected!J19</f>
         <v>45114</v>
       </c>
-      <c r="G20" s="218"/>
-      <c r="H20" s="223" t="s">
+      <c r="G20" s="217"/>
+      <c r="H20" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="220">
+      <c r="I20" s="219">
         <v>45842</v>
       </c>
-      <c r="J20" s="224">
+      <c r="J20" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I20,,,Trigger)</f>
         <v>10</v>
       </c>
-      <c r="K20" s="225">
+      <c r="K20" s="224">
         <v>2.02391579931053E-2</v>
       </c>
-      <c r="L20" s="225">
+      <c r="L20" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I20,$J$2,,,TRUE,Trigger)</f>
         <v>2.0237631781407285E-2</v>
       </c>
-      <c r="M20" s="222">
+      <c r="M20" s="221">
         <f t="shared" si="1"/>
         <v>-1.5262116980149787E-6</v>
       </c>
-      <c r="N20" s="226">
+      <c r="N20" s="225">
         <v>0.81677503260307405</v>
       </c>
-      <c r="O20" s="226">
+      <c r="O20" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I20,TRUE,Trigger)</f>
         <v>0.81678749841429543</v>
       </c>
-      <c r="P20" s="222">
+      <c r="P20" s="221">
         <f t="shared" si="2"/>
         <v>-1.2465811221384904E-5</v>
       </c>
-      <c r="Q20" s="214"/>
+      <c r="Q20" s="213"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="219" t="str">
+      <c r="A21" s="218" t="str">
         <v>GBPSB6L9Y</v>
       </c>
-      <c r="B21" s="220">
+      <c r="B21" s="219">
         <v>45481</v>
       </c>
-      <c r="C21" s="221">
+      <c r="C21" s="220">
         <v>1.9422999999999999E-2</v>
       </c>
-      <c r="D21" s="221">
+      <c r="D21" s="220">
         <f>Selected!F20</f>
         <v>1.9422999999999999E-2</v>
       </c>
-      <c r="E21" s="222">
+      <c r="E21" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="220">
+      <c r="F21" s="219">
         <f>Selected!J20</f>
         <v>45481</v>
       </c>
-      <c r="G21" s="218"/>
-      <c r="H21" s="223" t="s">
+      <c r="G21" s="217"/>
+      <c r="H21" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="220">
+      <c r="I21" s="219">
         <v>46572</v>
       </c>
-      <c r="J21" s="224">
+      <c r="J21" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I21,,,Trigger)</f>
         <v>12</v>
       </c>
-      <c r="K21" s="225">
+      <c r="K21" s="224">
         <v>2.13153712932714E-2</v>
       </c>
-      <c r="L21" s="225">
+      <c r="L21" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I21,$J$2,,,TRUE,Trigger)</f>
         <v>2.1314095300128483E-2</v>
       </c>
-      <c r="M21" s="222">
+      <c r="M21" s="221">
         <f t="shared" si="1"/>
         <v>-1.2759931429170979E-6</v>
       </c>
-      <c r="N21" s="226">
+      <c r="N21" s="225">
         <v>0.77430884880532003</v>
       </c>
-      <c r="O21" s="226">
+      <c r="O21" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I21,TRUE,Trigger)</f>
         <v>0.77432070504946959</v>
       </c>
-      <c r="P21" s="222">
+      <c r="P21" s="221">
         <f t="shared" si="2"/>
         <v>-1.1856244149566209E-5</v>
       </c>
-      <c r="Q21" s="214"/>
+      <c r="Q21" s="213"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="219" t="str">
+      <c r="A22" s="218" t="str">
         <v>GBPSB6L10Y</v>
       </c>
-      <c r="B22" s="220">
+      <c r="B22" s="219">
         <v>45845</v>
       </c>
-      <c r="C22" s="221">
+      <c r="C22" s="220">
         <v>2.002E-2</v>
       </c>
-      <c r="D22" s="221">
+      <c r="D22" s="220">
         <f>Selected!F21</f>
         <v>2.002E-2</v>
       </c>
-      <c r="E22" s="222">
+      <c r="E22" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="220">
+      <c r="F22" s="219">
         <f>Selected!J21</f>
         <v>45845</v>
       </c>
-      <c r="G22" s="218"/>
-      <c r="H22" s="223" t="s">
+      <c r="G22" s="217"/>
+      <c r="H22" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="220">
+      <c r="I22" s="219">
         <v>47667</v>
       </c>
-      <c r="J22" s="224">
+      <c r="J22" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I22,,,Trigger)</f>
         <v>15</v>
       </c>
-      <c r="K22" s="225">
+      <c r="K22" s="224">
         <v>2.2366362170636801E-2</v>
       </c>
-      <c r="L22" s="225">
+      <c r="L22" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I22,$J$2,,,TRUE,Trigger)</f>
         <v>2.2365210617786551E-2</v>
       </c>
-      <c r="M22" s="222">
+      <c r="M22" s="221">
         <f t="shared" si="1"/>
         <v>-1.1515528502495376E-6</v>
       </c>
-      <c r="N22" s="226">
+      <c r="N22" s="225">
         <v>0.71498377235008703</v>
       </c>
-      <c r="O22" s="226">
+      <c r="O22" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I22,TRUE,Trigger)</f>
         <v>0.71499612258076539</v>
       </c>
-      <c r="P22" s="222">
+      <c r="P22" s="221">
         <f t="shared" si="2"/>
         <v>-1.2350230678359608E-5</v>
       </c>
-      <c r="Q22" s="214"/>
+      <c r="Q22" s="213"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="219" t="str">
+      <c r="A23" s="218" t="str">
         <v>GBPSB6L12Y</v>
       </c>
-      <c r="B23" s="220">
+      <c r="B23" s="219">
         <v>46575</v>
       </c>
-      <c r="C23" s="221">
+      <c r="C23" s="220">
         <v>2.1028000000000002E-2</v>
       </c>
-      <c r="D23" s="221">
+      <c r="D23" s="220">
         <f>Selected!F22</f>
         <v>2.1028000000000002E-2</v>
       </c>
-      <c r="E23" s="222">
+      <c r="E23" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="220">
+      <c r="F23" s="219">
         <f>Selected!J22</f>
         <v>46575</v>
       </c>
-      <c r="G23" s="218"/>
-      <c r="H23" s="223" t="s">
+      <c r="G23" s="217"/>
+      <c r="H23" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="220">
+      <c r="I23" s="219">
         <v>49492</v>
       </c>
-      <c r="J23" s="224">
+      <c r="J23" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I23,,,Trigger)</f>
         <v>20</v>
       </c>
-      <c r="K23" s="225">
+      <c r="K23" s="224">
         <v>2.3077364178532001E-2</v>
       </c>
-      <c r="L23" s="225">
+      <c r="L23" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I23,$J$2,,,TRUE,Trigger)</f>
         <v>2.3076374229297203E-2</v>
       </c>
-      <c r="M23" s="222">
+      <c r="M23" s="221">
         <f t="shared" si="1"/>
         <v>-9.8994923479825414E-7</v>
       </c>
-      <c r="N23" s="226">
+      <c r="N23" s="225">
         <v>0.63030762597803303</v>
       </c>
-      <c r="O23" s="226">
+      <c r="O23" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I23,TRUE,Trigger)</f>
         <v>0.63032010555261464</v>
       </c>
-      <c r="P23" s="222">
+      <c r="P23" s="221">
         <f t="shared" si="2"/>
         <v>-1.2479574581614195E-5</v>
       </c>
-      <c r="Q23" s="214"/>
+      <c r="Q23" s="213"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="219" t="str">
+      <c r="A24" s="218" t="str">
         <v>GBPSB6L15Y</v>
       </c>
-      <c r="B24" s="220">
+      <c r="B24" s="219">
         <v>47672</v>
       </c>
-      <c r="C24" s="221">
+      <c r="C24" s="220">
         <v>2.2006499999999998E-2</v>
       </c>
-      <c r="D24" s="221">
+      <c r="D24" s="220">
         <f>Selected!F23</f>
         <v>2.2006499999999998E-2</v>
       </c>
-      <c r="E24" s="222">
+      <c r="E24" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="220">
+      <c r="F24" s="219">
         <f>Selected!J23</f>
         <v>47672</v>
       </c>
-      <c r="G24" s="218"/>
-      <c r="H24" s="223" t="s">
+      <c r="G24" s="217"/>
+      <c r="H24" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="220">
+      <c r="I24" s="219">
         <v>51317</v>
       </c>
-      <c r="J24" s="224">
+      <c r="J24" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I24,,,Trigger)</f>
         <v>25</v>
       </c>
-      <c r="K24" s="225">
+      <c r="K24" s="224">
         <v>2.3044122176320798E-2</v>
       </c>
-      <c r="L24" s="225">
+      <c r="L24" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I24,$J$2,,,TRUE,Trigger)</f>
         <v>2.3043300921862887E-2</v>
       </c>
-      <c r="M24" s="222">
+      <c r="M24" s="221">
         <f t="shared" si="1"/>
         <v>-8.2125445791114693E-7</v>
       </c>
-      <c r="N24" s="226">
+      <c r="N24" s="225">
         <v>0.56208451692484296</v>
       </c>
-      <c r="O24" s="226">
+      <c r="O24" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I24,TRUE,Trigger)</f>
         <v>0.56209605740369462</v>
       </c>
-      <c r="P24" s="222">
+      <c r="P24" s="221">
         <f t="shared" si="2"/>
         <v>-1.1540478851657099E-5</v>
       </c>
-      <c r="Q24" s="214"/>
+      <c r="Q24" s="213"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="219" t="str">
+      <c r="A25" s="218" t="str">
         <v>GBPSB6L20Y</v>
       </c>
-      <c r="B25" s="220">
+      <c r="B25" s="219">
         <v>49499</v>
       </c>
-      <c r="C25" s="221">
+      <c r="C25" s="220">
         <v>2.2692E-2</v>
       </c>
-      <c r="D25" s="221">
+      <c r="D25" s="220">
         <f>Selected!F24</f>
         <v>2.2692E-2</v>
       </c>
-      <c r="E25" s="222">
+      <c r="E25" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="220">
+      <c r="F25" s="219">
         <f>Selected!J24</f>
         <v>49499</v>
       </c>
-      <c r="G25" s="218"/>
-      <c r="H25" s="223" t="s">
+      <c r="G25" s="217"/>
+      <c r="H25" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="220">
+      <c r="I25" s="219">
         <v>53142</v>
       </c>
-      <c r="J25" s="224">
+      <c r="J25" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I25,,,Trigger)</f>
         <v>30</v>
       </c>
-      <c r="K25" s="225">
+      <c r="K25" s="224">
         <v>2.2885923200825001E-2</v>
       </c>
-      <c r="L25" s="225">
+      <c r="L25" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I25,$J$2,,,TRUE,Trigger)</f>
         <v>2.2885588731452029E-2</v>
       </c>
-      <c r="M25" s="222">
+      <c r="M25" s="221">
         <f t="shared" si="1"/>
         <v>-3.3446937297218482E-7</v>
       </c>
-      <c r="N25" s="226">
+      <c r="N25" s="225">
         <v>0.50329555546543803</v>
       </c>
-      <c r="O25" s="226">
+      <c r="O25" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I25,TRUE,Trigger)</f>
         <v>0.50330060559924095</v>
       </c>
-      <c r="P25" s="222">
+      <c r="P25" s="221">
         <f t="shared" si="2"/>
         <v>-5.0501338029196319E-6</v>
       </c>
-      <c r="Q25" s="214"/>
+      <c r="Q25" s="213"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="219" t="str">
+      <c r="A26" s="218" t="str">
         <v>GBPSB6L25Y</v>
       </c>
-      <c r="B26" s="220">
+      <c r="B26" s="219">
         <v>51326</v>
       </c>
-      <c r="C26" s="221">
+      <c r="C26" s="220">
         <v>2.2744250000000001E-2</v>
       </c>
-      <c r="D26" s="221">
+      <c r="D26" s="220">
         <f>Selected!F25</f>
         <v>2.2744250000000001E-2</v>
       </c>
-      <c r="E26" s="222">
+      <c r="E26" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="220">
+      <c r="F26" s="219">
         <f>Selected!J25</f>
         <v>51326</v>
       </c>
-      <c r="G26" s="218"/>
-      <c r="H26" s="223" t="s">
+      <c r="G26" s="217"/>
+      <c r="H26" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="220">
+      <c r="I26" s="219">
         <v>54967</v>
       </c>
-      <c r="J26" s="224">
+      <c r="J26" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I26,,,Trigger)</f>
         <v>35</v>
       </c>
-      <c r="K26" s="225">
+      <c r="K26" s="224">
         <v>2.2463964660946401E-2</v>
       </c>
-      <c r="L26" s="225">
+      <c r="L26" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I26,$J$2,,,TRUE,Trigger)</f>
         <v>2.246365952553182E-2</v>
       </c>
-      <c r="M26" s="222">
+      <c r="M26" s="221">
         <f t="shared" si="1"/>
         <v>-3.0513541458138116E-7</v>
       </c>
-      <c r="N26" s="226">
+      <c r="N26" s="225">
         <v>0.45555502733593001</v>
       </c>
-      <c r="O26" s="226">
+      <c r="O26" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I26,TRUE,Trigger)</f>
         <v>0.45555989257093454</v>
       </c>
-      <c r="P26" s="222">
+      <c r="P26" s="221">
         <f t="shared" si="2"/>
         <v>-4.8652350045363946E-6</v>
       </c>
-      <c r="Q26" s="214"/>
+      <c r="Q26" s="213"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="219" t="str">
+      <c r="A27" s="218" t="str">
         <v>GBPSB6L30Y</v>
       </c>
-      <c r="B27" s="220">
+      <c r="B27" s="219">
         <v>53150</v>
       </c>
-      <c r="C27" s="221">
+      <c r="C27" s="220">
         <v>2.2680499999999999E-2</v>
       </c>
-      <c r="D27" s="221">
+      <c r="D27" s="220">
         <f>Selected!F26</f>
         <v>2.2680499999999999E-2</v>
       </c>
-      <c r="E27" s="222">
+      <c r="E27" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="220">
+      <c r="F27" s="219">
         <f>Selected!J26</f>
         <v>53150</v>
       </c>
-      <c r="G27" s="218"/>
-      <c r="H27" s="223" t="s">
+      <c r="G27" s="217"/>
+      <c r="H27" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="220">
+      <c r="I27" s="219">
         <v>56792</v>
       </c>
-      <c r="J27" s="224">
+      <c r="J27" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I27,,,Trigger)</f>
         <v>40</v>
       </c>
-      <c r="K27" s="225">
+      <c r="K27" s="224">
         <v>2.20408474884571E-2</v>
       </c>
-      <c r="L27" s="225">
+      <c r="L27" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I27,$J$2,,,TRUE,Trigger)</f>
         <v>2.2040569665966576E-2</v>
       </c>
-      <c r="M27" s="222">
+      <c r="M27" s="221">
         <f t="shared" si="1"/>
         <v>-2.7782249052352159E-7</v>
       </c>
-      <c r="N27" s="226">
+      <c r="N27" s="225">
         <v>0.41410575143025502</v>
       </c>
-      <c r="O27" s="226">
+      <c r="O27" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I27,TRUE,Trigger)</f>
         <v>0.41411035337147339</v>
       </c>
-      <c r="P27" s="222">
+      <c r="P27" s="221">
         <f t="shared" si="2"/>
         <v>-4.6019412183739838E-6</v>
       </c>
-      <c r="Q27" s="214"/>
+      <c r="Q27" s="213"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="219" t="str">
+      <c r="A28" s="218" t="str">
         <v>GBPSB6L40Y</v>
       </c>
-      <c r="B28" s="220">
+      <c r="B28" s="219">
         <v>56802</v>
       </c>
-      <c r="C28" s="221">
+      <c r="C28" s="220">
         <v>2.2155000000000001E-2</v>
       </c>
-      <c r="D28" s="221">
+      <c r="D28" s="220">
         <f>Selected!F27</f>
         <v>2.2155000000000001E-2</v>
       </c>
-      <c r="E28" s="222">
+      <c r="E28" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="220">
+      <c r="F28" s="219">
         <f>Selected!J27</f>
         <v>56802</v>
       </c>
-      <c r="G28" s="218"/>
-      <c r="H28" s="223" t="s">
+      <c r="G28" s="217"/>
+      <c r="H28" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="220">
+      <c r="I28" s="219">
         <v>58617</v>
       </c>
-      <c r="J28" s="224">
+      <c r="J28" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I28,,,Trigger)</f>
         <v>45</v>
       </c>
-      <c r="K28" s="225">
+      <c r="K28" s="224">
         <v>2.1751200718512002E-2</v>
       </c>
-      <c r="L28" s="225">
+      <c r="L28" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I28,$J$2,,,TRUE,Trigger)</f>
         <v>2.1750936878679916E-2</v>
       </c>
-      <c r="M28" s="222">
+      <c r="M28" s="221">
         <f t="shared" si="1"/>
         <v>-2.6383983208616568E-7</v>
       </c>
-      <c r="N28" s="226">
+      <c r="N28" s="225">
         <v>0.37576022730870001</v>
       </c>
-      <c r="O28" s="226">
+      <c r="O28" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I28,TRUE,Trigger)</f>
         <v>0.37576468865837165</v>
       </c>
-      <c r="P28" s="222">
+      <c r="P28" s="221">
         <f t="shared" si="2"/>
         <v>-4.4613496716361389E-6</v>
       </c>
-      <c r="Q28" s="214"/>
+      <c r="Q28" s="213"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="219" t="str">
+      <c r="A29" s="218" t="str">
         <v>GBPSB6L50Y</v>
       </c>
-      <c r="B29" s="220">
+      <c r="B29" s="219">
         <v>60455</v>
       </c>
-      <c r="C29" s="221">
+      <c r="C29" s="220">
         <v>2.1795499999999999E-2</v>
       </c>
-      <c r="D29" s="221">
+      <c r="D29" s="220">
         <f>Selected!F28</f>
         <v>2.1795499999999999E-2</v>
       </c>
-      <c r="E29" s="222">
+      <c r="E29" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="220">
+      <c r="F29" s="219">
         <f>Selected!J28</f>
         <v>60455</v>
       </c>
-      <c r="G29" s="218"/>
-      <c r="H29" s="223" t="s">
+      <c r="G29" s="217"/>
+      <c r="H29" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="220">
+      <c r="I29" s="219">
         <v>60442</v>
       </c>
-      <c r="J29" s="224">
+      <c r="J29" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I29,,,Trigger)</f>
         <v>50</v>
       </c>
-      <c r="K29" s="225">
+      <c r="K29" s="224">
         <v>2.1462289322685499E-2</v>
       </c>
-      <c r="L29" s="225">
+      <c r="L29" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I29,$J$2,,,TRUE,Trigger)</f>
         <v>2.1462039392066964E-2</v>
       </c>
-      <c r="M29" s="222">
+      <c r="M29" s="221">
         <f t="shared" si="1"/>
         <v>-2.4993061853439968E-7</v>
       </c>
-      <c r="N29" s="226">
+      <c r="N29" s="225">
         <v>0.34194189085577198</v>
       </c>
-      <c r="O29" s="226">
+      <c r="O29" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I29,TRUE,Trigger)</f>
         <v>0.34194616396988681</v>
       </c>
-      <c r="P29" s="222">
+      <c r="P29" s="221">
         <f t="shared" si="2"/>
         <v>-4.2731141148277807E-6</v>
       </c>
-      <c r="Q29" s="214"/>
+      <c r="Q29" s="213"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="219" t="str">
+      <c r="A30" s="218" t="str">
         <v>GBPSB6L60Y</v>
       </c>
-      <c r="B30" s="220">
+      <c r="B30" s="219">
         <v>64108</v>
       </c>
-      <c r="C30" s="221">
+      <c r="C30" s="220">
         <v>2.1819999999999999E-2</v>
       </c>
-      <c r="D30" s="221">
+      <c r="D30" s="220">
         <f>Selected!F29</f>
         <v>2.1819999999999999E-2</v>
       </c>
-      <c r="E30" s="222">
+      <c r="E30" s="221">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="220">
+      <c r="F30" s="219">
         <f>Selected!J29</f>
         <v>64108</v>
       </c>
-      <c r="G30" s="218"/>
-      <c r="H30" s="223" t="s">
+      <c r="G30" s="217"/>
+      <c r="H30" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="220">
+      <c r="I30" s="219">
         <v>62267</v>
       </c>
-      <c r="J30" s="224">
+      <c r="J30" s="223">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I30,,,Trigger)</f>
         <v>55</v>
       </c>
-      <c r="K30" s="225">
+      <c r="K30" s="224">
         <v>2.15002554998221E-2</v>
       </c>
-      <c r="L30" s="225">
+      <c r="L30" s="224">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I30,$J$2,,,TRUE,Trigger)</f>
         <v>2.1500004774391276E-2</v>
       </c>
-      <c r="M30" s="222">
+      <c r="M30" s="221">
         <f t="shared" si="1"/>
         <v>-2.507254308233009E-7</v>
       </c>
-      <c r="N30" s="226">
+      <c r="N30" s="225">
         <v>0.30650719398137399</v>
       </c>
-      <c r="O30" s="226">
+      <c r="O30" s="225">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I30,TRUE,Trigger)</f>
         <v>0.30651142071367088</v>
       </c>
-      <c r="P30" s="222">
+      <c r="P30" s="221">
         <f t="shared" si="2"/>
         <v>-4.2267322968858601E-6</v>
       </c>
-      <c r="Q30" s="214"/>
+      <c r="Q30" s="213"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="237"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="228" t="s">
+      <c r="A31" s="236"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="229">
+      <c r="I31" s="228">
         <v>64092</v>
       </c>
-      <c r="J31" s="230">
+      <c r="J31" s="229">
         <f>_xll.qlDayCounterYearFraction($J$2,_xll.qlSettingsEvaluationDate(Trigger),I31,,,Trigger)</f>
         <v>60</v>
       </c>
-      <c r="K31" s="231">
+      <c r="K31" s="230">
         <v>2.1540566825108999E-2</v>
       </c>
-      <c r="L31" s="231">
+      <c r="L31" s="230">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I31,$J$2,,,TRUE,Trigger)</f>
         <v>2.1540315199373529E-2</v>
       </c>
-      <c r="M31" s="232">
+      <c r="M31" s="231">
         <f t="shared" si="1"/>
         <v>-2.516257354701068E-7</v>
       </c>
-      <c r="N31" s="233">
+      <c r="N31" s="232">
         <v>0.27460158613309799</v>
       </c>
-      <c r="O31" s="233">
+      <c r="O31" s="232">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I31,TRUE,Trigger)</f>
         <v>0.27460573197395921</v>
       </c>
-      <c r="P31" s="232">
+      <c r="P31" s="231">
         <f t="shared" si="2"/>
         <v>-4.1458408612249364E-6</v>
       </c>
-      <c r="Q31" s="214"/>
+      <c r="Q31" s="213"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="218"/>
-      <c r="B32" s="241"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="218"/>
-      <c r="Q32" s="214"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="240"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="217"/>
+      <c r="Q32" s="213"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="218"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="218"/>
-      <c r="N33" s="218"/>
-      <c r="O33" s="218"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="214"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="240"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="240"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="217"/>
+      <c r="Q33" s="213"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="218"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="242"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
-      <c r="J34" s="218"/>
-      <c r="K34" s="218"/>
-      <c r="L34" s="218"/>
-      <c r="M34" s="218"/>
-      <c r="N34" s="218"/>
-      <c r="O34" s="218"/>
-      <c r="P34" s="218"/>
-      <c r="Q34" s="214"/>
+      <c r="A34" s="217"/>
+      <c r="B34" s="240"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="217"/>
+      <c r="L34" s="217"/>
+      <c r="M34" s="217"/>
+      <c r="N34" s="217"/>
+      <c r="O34" s="217"/>
+      <c r="P34" s="217"/>
+      <c r="Q34" s="213"/>
     </row>
     <row r="35" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="235"/>
-      <c r="H35" s="235"/>
-      <c r="I35" s="235"/>
-      <c r="J35" s="235"/>
-      <c r="K35" s="235"/>
-      <c r="L35" s="235"/>
-      <c r="M35" s="235"/>
-      <c r="N35" s="235"/>
-      <c r="O35" s="235"/>
-      <c r="P35" s="235"/>
-      <c r="Q35" s="236"/>
+      <c r="A35" s="233"/>
+      <c r="B35" s="234"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="234"/>
+      <c r="H35" s="234"/>
+      <c r="I35" s="234"/>
+      <c r="J35" s="234"/>
+      <c r="K35" s="234"/>
+      <c r="L35" s="234"/>
+      <c r="M35" s="234"/>
+      <c r="N35" s="234"/>
+      <c r="O35" s="234"/>
+      <c r="P35" s="234"/>
+      <c r="Q35" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="2">
